--- a/Document/阀冷系统_迪文屏幕_RAM变量分配表.xlsx
+++ b/Document/阀冷系统_迪文屏幕_RAM变量分配表.xlsx
@@ -8,16 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="关键界面" sheetId="1" r:id="rId1"/>
-    <sheet name="子界面" sheetId="2" r:id="rId2"/>
-    <sheet name="DI_DO_AI_AO" sheetId="3" r:id="rId3"/>
-    <sheet name="曲线显示" sheetId="4" r:id="rId4"/>
+    <sheet name="关键界面（续）" sheetId="5" r:id="rId2"/>
+    <sheet name="子界面" sheetId="2" r:id="rId3"/>
+    <sheet name="DI_DO_AI_AO" sheetId="3" r:id="rId4"/>
+    <sheet name="曲线显示_暂时不用" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="429">
+  <si>
+    <t>红色字体标注项为后续新加！</t>
+  </si>
   <si>
     <t>系统前台状态</t>
   </si>
@@ -82,43 +86,69 @@
     <t>0x2004</t>
   </si>
   <si>
+    <t>压力误差_test</t>
+  </si>
+  <si>
+    <t>0x204C</t>
+  </si>
+  <si>
+    <t>压力/流量/液位系统状态</t>
+  </si>
+  <si>
+    <t>0x2005</t>
+  </si>
+  <si>
     <t>流量传感器_std_2</t>
   </si>
   <si>
-    <t>0x204C</t>
-  </si>
-  <si>
-    <t>压力/流量/液位系统状态</t>
-  </si>
-  <si>
-    <t>0x2005</t>
+    <t>0x204E</t>
+  </si>
+  <si>
+    <t>压力/流量/液位系统百分比</t>
+  </si>
+  <si>
+    <t>0x2006</t>
   </si>
   <si>
     <t>流量传感器_test_2</t>
   </si>
   <si>
-    <t>0x204E</t>
-  </si>
-  <si>
-    <t>压力/流量/液位系统百分比</t>
-  </si>
-  <si>
-    <t>0x2006</t>
-  </si>
-  <si>
-    <t>液位传感器_std_3</t>
-  </si>
-  <si>
     <t>0x2050</t>
   </si>
   <si>
-    <t>压力/流量/液位系统用时</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压力/流量/液位系统用时（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂时不用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>0x2007</t>
   </si>
   <si>
-    <t>液位传感器_test_3</t>
+    <t>流量误差_test</t>
   </si>
   <si>
     <t>0x2052</t>
@@ -130,7 +160,7 @@
     <t>0x2008</t>
   </si>
   <si>
-    <t>温度传感器_std_4</t>
+    <t>液位传感器_std_2</t>
   </si>
   <si>
     <t>0x2054</t>
@@ -142,7 +172,7 @@
     <t>0x2009</t>
   </si>
   <si>
-    <t>温度传感器_test_4</t>
+    <t>液位传感器_test_2</t>
   </si>
   <si>
     <t>0x2056</t>
@@ -154,19 +184,45 @@
     <t>0x200A</t>
   </si>
   <si>
-    <t>电导率传感器_std_5</t>
+    <t>液位误差_test</t>
   </si>
   <si>
     <t>0x2058</t>
   </si>
   <si>
-    <t>温度检测系统用时</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温度检测系统用时（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂时不用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>0x200B</t>
   </si>
   <si>
-    <t>电导率传感器_test_5</t>
+    <t>温度传感器_std_3</t>
   </si>
   <si>
     <t>0x205A</t>
@@ -178,289 +234,867 @@
     <t>0x200C</t>
   </si>
   <si>
+    <t>温度传感器_test_3</t>
+  </si>
+  <si>
+    <t>0x205C</t>
+  </si>
+  <si>
     <t>电导率检测系统状态</t>
   </si>
   <si>
     <t>0x200D</t>
   </si>
   <si>
+    <t>温度误差_test</t>
+  </si>
+  <si>
+    <t>0x205E</t>
+  </si>
+  <si>
     <t>电导率检测系统百分比</t>
   </si>
   <si>
     <t>0x200E</t>
   </si>
   <si>
-    <t>电导率检测系统用时</t>
+    <t>电导率传感器_std_4</t>
+  </si>
+  <si>
+    <t>0x2060</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电导率检测系统用时（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂时不用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>0x200F</t>
   </si>
   <si>
+    <t>电导率传感器_test_4</t>
+  </si>
+  <si>
+    <t>0x2062</t>
+  </si>
+  <si>
+    <t>电导率误差_test</t>
+  </si>
+  <si>
+    <t>0x2064</t>
+  </si>
+  <si>
+    <t>涡街传感器_std_5</t>
+  </si>
+  <si>
+    <t>0x2066</t>
+  </si>
+  <si>
+    <t>涡街率传感器_test_5</t>
+  </si>
+  <si>
+    <t>0x2068</t>
+  </si>
+  <si>
+    <t>动画组</t>
+  </si>
+  <si>
+    <t>涡街率误差_test</t>
+  </si>
+  <si>
+    <t>0x206A</t>
+  </si>
+  <si>
+    <t>NULL传感器_std_6</t>
+  </si>
+  <si>
+    <t>0x206C</t>
+  </si>
+  <si>
+    <t>NULL传感器_test_6</t>
+  </si>
+  <si>
+    <t>0x206E</t>
+  </si>
+  <si>
+    <t>变频器启动动画</t>
+  </si>
+  <si>
+    <t>0x2010</t>
+  </si>
+  <si>
+    <t>NULL误差_test</t>
+  </si>
+  <si>
+    <t>0x2070</t>
+  </si>
+  <si>
+    <t>液体流动动画_压力/流量</t>
+  </si>
+  <si>
+    <t>0x2011</t>
+  </si>
+  <si>
+    <t>液体流动动画_液位</t>
+  </si>
+  <si>
+    <t>0x2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">风扇转动动画 </t>
+  </si>
+  <si>
+    <t>0x2013</t>
+  </si>
+  <si>
+    <t>示意电解质投入动画</t>
+  </si>
+  <si>
+    <t>0x2014</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>0x2015</t>
+  </si>
+  <si>
+    <t>系统后台参数</t>
+  </si>
+  <si>
+    <t>压力/流量/液位系统静默时间</t>
+  </si>
+  <si>
+    <t>R/W</t>
+  </si>
+  <si>
+    <t>0x2016</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压力/流量/液位系统允许误差（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂时不用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>0x2018</t>
+  </si>
+  <si>
+    <t>压力/流量/液位系统偏移点</t>
+  </si>
+  <si>
+    <t>0x201A</t>
+  </si>
+  <si>
+    <t>温度检测系统静默时间</t>
+  </si>
+  <si>
+    <t>0x201C</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温度检测系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目标温度值</t>
+    </r>
+  </si>
+  <si>
+    <t>0x201E</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温度检测系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测次数</t>
+    </r>
+  </si>
+  <si>
+    <t>0x2020</t>
+  </si>
+  <si>
+    <t>电导率检测静默时间</t>
+  </si>
+  <si>
+    <t>0x2022</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电导率检测允许误差（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂时不用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>0x2024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电导率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测次数</t>
+    </r>
+  </si>
+  <si>
+    <t>0x2026</t>
+  </si>
+  <si>
+    <t>检测系统实验标准</t>
+  </si>
+  <si>
+    <t>待测压力传感器</t>
+  </si>
+  <si>
+    <t>0x2130</t>
+  </si>
+  <si>
+    <t>待测流量传感器</t>
+  </si>
+  <si>
+    <t>0x2132</t>
+  </si>
+  <si>
+    <t>待测液位传感器</t>
+  </si>
+  <si>
+    <t>0x2134</t>
+  </si>
+  <si>
+    <t>待测温度传感器</t>
+  </si>
+  <si>
+    <t>0x2136</t>
+  </si>
+  <si>
+    <t>待测电导率传感器</t>
+  </si>
+  <si>
+    <t>0x2138</t>
+  </si>
+  <si>
+    <t>待测涡街传感器</t>
+  </si>
+  <si>
+    <t>0x213A</t>
+  </si>
+  <si>
+    <t>其他（弃用）</t>
+  </si>
+  <si>
+    <t>当前系统区分地址</t>
+  </si>
+  <si>
+    <t>0x3000</t>
+  </si>
+  <si>
+    <t>16bit（下发0x10/0x20/0x30）</t>
+  </si>
+  <si>
+    <t>系统开始按钮确认地址/强制结束按钮地址</t>
+  </si>
+  <si>
+    <t>0x3001</t>
+  </si>
+  <si>
+    <t>16bit （下发0xF1/0xF0）</t>
+  </si>
+  <si>
+    <r>
+      <t>系统强制结束按钮地址(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂时不用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>0x3002</t>
+  </si>
+  <si>
+    <t>16bit （下发0xF1）</t>
+  </si>
+  <si>
+    <t>降温风扇开关地址</t>
+  </si>
+  <si>
+    <t>0x3003</t>
+  </si>
+  <si>
+    <t>电导率加水按钮</t>
+  </si>
+  <si>
+    <t>0x3004</t>
+  </si>
+  <si>
+    <t>电导率排空按钮</t>
+  </si>
+  <si>
+    <t>0x3005</t>
+  </si>
+  <si>
+    <t>历史数据保存/清除按钮</t>
+  </si>
+  <si>
+    <t>0x3006</t>
+  </si>
+  <si>
+    <t>16bit （下发0xF1/0xF1）</t>
+  </si>
+  <si>
+    <t>开发者模式</t>
+  </si>
+  <si>
+    <t>0x3007</t>
+  </si>
+  <si>
+    <t>16bit （下发0xF0/0xF1/F2/F3）</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>开关类操作地址（急停、风扇、加水、排液）</t>
+  </si>
+  <si>
+    <t>16bit （下发0xF0、0xF1、0xF2、0xF3）</t>
+  </si>
+  <si>
     <t>传感器上/下限设置</t>
   </si>
   <si>
-    <t>压力传感器_上限</t>
-  </si>
-  <si>
-    <t>R/W</t>
-  </si>
-  <si>
-    <t>0x205C</t>
+    <t>超限提示界面</t>
+  </si>
+  <si>
+    <t>地址宽度</t>
+  </si>
+  <si>
+    <t>std_压力传感器_上限</t>
+  </si>
+  <si>
+    <t>0x2100</t>
   </si>
   <si>
     <t>显示%.3f，输入%d1位小数</t>
   </si>
   <si>
-    <t>动画组</t>
-  </si>
-  <si>
-    <t>压力传感器_下限</t>
-  </si>
-  <si>
-    <t>0x205E</t>
-  </si>
-  <si>
-    <t>流量传感器_上限</t>
-  </si>
-  <si>
-    <t>0x2060</t>
-  </si>
-  <si>
-    <t>流量传感器_下限</t>
-  </si>
-  <si>
-    <t>0x2062</t>
-  </si>
-  <si>
-    <t>变频器启动动画</t>
-  </si>
-  <si>
-    <t>0x2010</t>
-  </si>
-  <si>
-    <t>液位传感器_上限</t>
-  </si>
-  <si>
-    <t>0x2064</t>
-  </si>
-  <si>
-    <t>液体流动动画_压力/流量</t>
-  </si>
-  <si>
-    <t>0x2011</t>
-  </si>
-  <si>
-    <t>液位传感器_下限</t>
-  </si>
-  <si>
-    <t>0x2066</t>
-  </si>
-  <si>
-    <t>液体流动动画_液位</t>
-  </si>
-  <si>
-    <t>0x2012</t>
-  </si>
-  <si>
-    <t>温度传感器_上限</t>
-  </si>
-  <si>
-    <t>0x2068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">风扇转动动画 </t>
-  </si>
-  <si>
-    <t>0x2013</t>
-  </si>
-  <si>
-    <t>温度传感器_下限</t>
-  </si>
-  <si>
-    <t>0x206A</t>
-  </si>
-  <si>
-    <t>示意电解质投入动画</t>
-  </si>
-  <si>
-    <t>0x2014</t>
-  </si>
-  <si>
-    <t>电导率传感器_上限</t>
-  </si>
-  <si>
-    <t>0x206C</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>0x2015</t>
-  </si>
-  <si>
-    <t>电导率传感器_下限</t>
-  </si>
-  <si>
-    <t>0x206E</t>
+    <t>超上/下限图标地址</t>
+  </si>
+  <si>
+    <t>0x5000</t>
+  </si>
+  <si>
+    <t>（bit）2Byte</t>
+  </si>
+  <si>
+    <t>std_压力传感器_下限</t>
+  </si>
+  <si>
+    <t>0x2102</t>
+  </si>
+  <si>
+    <t>上下限值地址</t>
+  </si>
+  <si>
+    <t>0x5001</t>
+  </si>
+  <si>
+    <t>（.3%f）4Byte</t>
+  </si>
+  <si>
+    <t>test_压力传感器_上限</t>
+  </si>
+  <si>
+    <t>0x2104</t>
+  </si>
+  <si>
+    <t>test_压力传感器_下限</t>
+  </si>
+  <si>
+    <t>0x2106</t>
+  </si>
+  <si>
+    <t>std_流量传感器_上限</t>
+  </si>
+  <si>
+    <t>0x2108</t>
+  </si>
+  <si>
+    <t>std_流量传感器_下限</t>
+  </si>
+  <si>
+    <t>0x210A</t>
+  </si>
+  <si>
+    <t>test_流量传感器_上限</t>
+  </si>
+  <si>
+    <t>0x210C</t>
+  </si>
+  <si>
+    <t>test_流量传感器_下限</t>
+  </si>
+  <si>
+    <t>0x210E</t>
+  </si>
+  <si>
+    <t>std_液位传感器_上限</t>
+  </si>
+  <si>
+    <t>0x2110</t>
+  </si>
+  <si>
+    <t>std_液位传感器_下限</t>
+  </si>
+  <si>
+    <t>0x2112</t>
+  </si>
+  <si>
+    <t>test_液位传感器_上限</t>
+  </si>
+  <si>
+    <t>0x2114</t>
+  </si>
+  <si>
+    <t>test_液位传感器_下限</t>
+  </si>
+  <si>
+    <t>0x2116</t>
+  </si>
+  <si>
+    <t>std_温度传感器_上限</t>
+  </si>
+  <si>
+    <t>0x2118</t>
+  </si>
+  <si>
+    <t>std_温度传感器_下限</t>
+  </si>
+  <si>
+    <t>0x211A</t>
+  </si>
+  <si>
+    <t>test_温度传感器_上限</t>
+  </si>
+  <si>
+    <t>0x211C</t>
+  </si>
+  <si>
+    <t>test_温度传感器_下限</t>
+  </si>
+  <si>
+    <t>0x211E</t>
+  </si>
+  <si>
+    <t>std_电导率传感器_上限</t>
+  </si>
+  <si>
+    <t>0x2120</t>
+  </si>
+  <si>
+    <t>std_电导率传感器_下限</t>
+  </si>
+  <si>
+    <t>0x2122</t>
+  </si>
+  <si>
+    <t>test_电导率传感器_上限</t>
+  </si>
+  <si>
+    <t>0x2124</t>
+  </si>
+  <si>
+    <t>test_电导率传感器_下限</t>
+  </si>
+  <si>
+    <t>0x2126</t>
+  </si>
+  <si>
+    <t>std_涡街流量传感器_上限</t>
+  </si>
+  <si>
+    <t>0x2128</t>
+  </si>
+  <si>
+    <t>std_涡街流量传感器_下限</t>
+  </si>
+  <si>
+    <t>0x212A</t>
+  </si>
+  <si>
+    <t>test_涡街流量率传感器_上限</t>
+  </si>
+  <si>
+    <t>0x212C</t>
+  </si>
+  <si>
+    <t>test_涡街流量传感器_下限</t>
+  </si>
+  <si>
+    <t>0x212E</t>
   </si>
   <si>
     <t>传感器历史数据</t>
   </si>
   <si>
-    <t>系统后台参数</t>
-  </si>
-  <si>
-    <t>压力/流量/液位/温度/电导率_std_1</t>
-  </si>
-  <si>
-    <t>0x2070</t>
-  </si>
-  <si>
-    <t>压力/流量/液位系统静默时间</t>
-  </si>
-  <si>
-    <t>0x2016</t>
-  </si>
-  <si>
-    <t>压力/流量/液位/温度/电导率_test_1</t>
-  </si>
-  <si>
-    <t>0x2072</t>
-  </si>
-  <si>
-    <t>压力/流量/液位系统允许误差</t>
-  </si>
-  <si>
-    <t>0x2018</t>
-  </si>
-  <si>
-    <t>压力/流量/液位/温度/电导率_std_2</t>
-  </si>
-  <si>
-    <t>0x2074</t>
-  </si>
-  <si>
-    <t>压力/流量/液位系统偏移点</t>
-  </si>
-  <si>
-    <t>0x201A</t>
-  </si>
-  <si>
-    <t>压力/流量/液位/温度/电导率_test_2</t>
-  </si>
-  <si>
-    <t>0x2076</t>
-  </si>
-  <si>
-    <t>温度检测系统静默时间</t>
-  </si>
-  <si>
-    <t>0x201C</t>
-  </si>
-  <si>
-    <t>压力/流量/液位/温度/电导率_std_3</t>
-  </si>
-  <si>
-    <t>0x2078</t>
-  </si>
-  <si>
-    <t>温度检测系统允许误差</t>
-  </si>
-  <si>
-    <t>0x201E</t>
-  </si>
-  <si>
-    <t>压力/流量/液位/温度/电导率_test_3</t>
-  </si>
-  <si>
-    <t>0x207A</t>
-  </si>
-  <si>
-    <t>温度检测系统偏移点</t>
-  </si>
-  <si>
-    <t>0x2020</t>
-  </si>
-  <si>
-    <t>压力/流量/液位/温度/电导率_std_4</t>
-  </si>
-  <si>
-    <t>0x207C</t>
-  </si>
-  <si>
-    <t>电导率检测静默时间</t>
-  </si>
-  <si>
-    <t>0x2022</t>
-  </si>
-  <si>
-    <t>压力/流量/液位/温度/电导率_test_4</t>
-  </si>
-  <si>
-    <t>0x207E</t>
-  </si>
-  <si>
-    <t>电导率检测允许误差</t>
-  </si>
-  <si>
-    <t>0x2024</t>
-  </si>
-  <si>
-    <t>压力/流量/液位/温度/电导率_std_5</t>
-  </si>
-  <si>
-    <t>0x2080</t>
-  </si>
-  <si>
-    <t>电导率检测偏移点</t>
-  </si>
-  <si>
-    <t>0x2026</t>
-  </si>
-  <si>
-    <t>压力/流量/液位/温度/电导率_test_5</t>
-  </si>
-  <si>
-    <t>0x2082</t>
-  </si>
-  <si>
-    <t>压力/流量/液位/温度/电导率_test_6</t>
-  </si>
-  <si>
-    <t>0x2084</t>
-  </si>
-  <si>
-    <t>0x2086</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>当前系统区分地址</t>
-  </si>
-  <si>
-    <t>0x3000</t>
-  </si>
-  <si>
-    <t>16bit（下发0x10/0x20/0x30）</t>
-  </si>
-  <si>
-    <t>系统开始按钮确认地址</t>
-  </si>
-  <si>
-    <t>0x3001</t>
-  </si>
-  <si>
-    <t>16bit （下发0xF1）</t>
-  </si>
-  <si>
-    <t>系统强制结束按钮地址</t>
-  </si>
-  <si>
-    <t>0x3002</t>
-  </si>
-  <si>
-    <t>16bit （下发0xF0）</t>
+    <t>std_1</t>
+  </si>
+  <si>
+    <t>0x4000</t>
+  </si>
+  <si>
+    <t>test_1</t>
+  </si>
+  <si>
+    <t>0x4002</t>
+  </si>
+  <si>
+    <t>std_2</t>
+  </si>
+  <si>
+    <t>0x4004</t>
+  </si>
+  <si>
+    <t>test_2</t>
+  </si>
+  <si>
+    <t>0x4006</t>
+  </si>
+  <si>
+    <t>std_3</t>
+  </si>
+  <si>
+    <t>0x4008</t>
+  </si>
+  <si>
+    <t>test_3</t>
+  </si>
+  <si>
+    <t>0x400A</t>
+  </si>
+  <si>
+    <t>std_4</t>
+  </si>
+  <si>
+    <t>0x400C</t>
+  </si>
+  <si>
+    <t>test_4</t>
+  </si>
+  <si>
+    <t>0x400E</t>
+  </si>
+  <si>
+    <t>std_5</t>
+  </si>
+  <si>
+    <t>0x4010</t>
+  </si>
+  <si>
+    <t>test_5</t>
+  </si>
+  <si>
+    <t>0x4012</t>
+  </si>
+  <si>
+    <t>std_6</t>
+  </si>
+  <si>
+    <t>0x4014</t>
+  </si>
+  <si>
+    <t>test_6</t>
+  </si>
+  <si>
+    <t>0x4016</t>
+  </si>
+  <si>
+    <t>std_7</t>
+  </si>
+  <si>
+    <t>0x4018</t>
+  </si>
+  <si>
+    <t>test_7</t>
+  </si>
+  <si>
+    <t>0x401A</t>
+  </si>
+  <si>
+    <t>std_8</t>
+  </si>
+  <si>
+    <t>0x401C</t>
+  </si>
+  <si>
+    <t>test_8</t>
+  </si>
+  <si>
+    <t>0x401E</t>
+  </si>
+  <si>
+    <t>std_9</t>
+  </si>
+  <si>
+    <t>0x4020</t>
+  </si>
+  <si>
+    <t>test_9</t>
+  </si>
+  <si>
+    <t>0x4022</t>
+  </si>
+  <si>
+    <t>std_10</t>
+  </si>
+  <si>
+    <t>0x4024</t>
+  </si>
+  <si>
+    <t>test_10</t>
+  </si>
+  <si>
+    <t>0x4026</t>
+  </si>
+  <si>
+    <t>std_11</t>
+  </si>
+  <si>
+    <t>0x4028</t>
+  </si>
+  <si>
+    <t>test_11</t>
+  </si>
+  <si>
+    <t>0x402A</t>
+  </si>
+  <si>
+    <t>std_12</t>
+  </si>
+  <si>
+    <t>0x402C</t>
+  </si>
+  <si>
+    <t>test_12</t>
+  </si>
+  <si>
+    <t>0x402E</t>
+  </si>
+  <si>
+    <t>std_13</t>
+  </si>
+  <si>
+    <t>0x4030</t>
+  </si>
+  <si>
+    <t>test_13</t>
+  </si>
+  <si>
+    <t>0x4032</t>
+  </si>
+  <si>
+    <t>std_14</t>
+  </si>
+  <si>
+    <t>0x4034</t>
+  </si>
+  <si>
+    <t>test_14</t>
+  </si>
+  <si>
+    <t>0x4036</t>
+  </si>
+  <si>
+    <t>std_15</t>
+  </si>
+  <si>
+    <t>0x4038</t>
+  </si>
+  <si>
+    <t>test_15</t>
+  </si>
+  <si>
+    <t>0x403A</t>
+  </si>
+  <si>
+    <t>std_16</t>
+  </si>
+  <si>
+    <t>0x403C</t>
+  </si>
+  <si>
+    <t>test_16</t>
+  </si>
+  <si>
+    <t>0x403E</t>
+  </si>
+  <si>
+    <t>std_17</t>
+  </si>
+  <si>
+    <t>0x4040</t>
+  </si>
+  <si>
+    <t>test_17</t>
+  </si>
+  <si>
+    <t>0x4042</t>
+  </si>
+  <si>
+    <t>std_18</t>
+  </si>
+  <si>
+    <t>0x4044</t>
+  </si>
+  <si>
+    <t>test_18</t>
+  </si>
+  <si>
+    <t>0x4046</t>
+  </si>
+  <si>
+    <t>std_19</t>
+  </si>
+  <si>
+    <t>0x4048</t>
+  </si>
+  <si>
+    <t>test_19</t>
+  </si>
+  <si>
+    <t>0x404A</t>
+  </si>
+  <si>
+    <t>std_20</t>
+  </si>
+  <si>
+    <t>0x404C</t>
+  </si>
+  <si>
+    <t>test_20</t>
+  </si>
+  <si>
+    <t>0x404E</t>
   </si>
   <si>
     <t>备注（结果）</t>
@@ -640,9 +1274,6 @@
     <t>0x2000.bit2</t>
   </si>
   <si>
-    <t>液位反馈</t>
-  </si>
-  <si>
     <t>第2路数字输出</t>
   </si>
   <si>
@@ -656,9 +1287,6 @@
   </si>
   <si>
     <t>0x2000.bit3</t>
-  </si>
-  <si>
-    <t>压力反馈</t>
   </si>
   <si>
     <t>第3路数字输出</t>
@@ -954,7 +1582,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,6 +1636,62 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei Mono"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="隶书"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="隶书"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1165,16 +1849,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="46">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1255,13 +1931,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="8" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,7 +2128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1652,6 +2334,94 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1757,10 +2527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1769,137 +2539,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2173,19 +2943,166 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2218,10 +3135,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2252,24 +3169,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2620,24 +3519,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D2:U57"/>
+  <dimension ref="A1:U86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="H5" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="19.4166666666667" customWidth="1"/>
-    <col min="11" max="11" width="20.7685185185185" customWidth="1"/>
+    <col min="6" max="6" width="34.8703703703704" customWidth="1"/>
+    <col min="11" max="11" width="28.9722222222222" customWidth="1"/>
     <col min="15" max="15" width="28.6944444444444" customWidth="1"/>
     <col min="21" max="21" width="16.2314814814815" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="139" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" ht="15.15"/>
     <row r="3" spans="4:21">
       <c r="D3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2647,7 +3551,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="32"/>
       <c r="N3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -2677,39 +3581,39 @@
     </row>
     <row r="5" spans="4:21">
       <c r="D5" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K5" s="34"/>
       <c r="N5" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S5" s="10"/>
       <c r="T5" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U5" s="34"/>
     </row>
@@ -2717,525 +3621,597 @@
       <c r="D6" s="43">
         <v>1</v>
       </c>
-      <c r="E6" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="91"/>
+      <c r="E6" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="140"/>
       <c r="G6" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H6" s="46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" s="46"/>
       <c r="J6" s="77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K6" s="80"/>
       <c r="N6" s="43">
         <v>1</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P6" s="44"/>
       <c r="Q6" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R6" s="46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S6" s="46"/>
-      <c r="T6" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="U6" s="115"/>
+      <c r="T6" s="163" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="164"/>
     </row>
     <row r="7" spans="4:21">
       <c r="D7" s="43">
         <v>2</v>
       </c>
-      <c r="E7" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="91"/>
+      <c r="E7" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="140"/>
       <c r="G7" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" s="46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" s="80"/>
       <c r="N7" s="43">
         <v>2</v>
       </c>
       <c r="O7" s="44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P7" s="44"/>
       <c r="Q7" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="46"/>
+      <c r="T7" s="163" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="164"/>
+    </row>
+    <row r="8" spans="4:21">
+      <c r="D8" s="141">
+        <v>3</v>
+      </c>
+      <c r="E8" s="142" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="142"/>
+      <c r="G8" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="144" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="144"/>
+      <c r="J8" s="155" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="156"/>
+      <c r="N8" s="102">
+        <v>3</v>
+      </c>
+      <c r="O8" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" s="105"/>
+      <c r="T8" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="125"/>
+    </row>
+    <row r="9" spans="4:21">
+      <c r="D9" s="141">
+        <v>4</v>
+      </c>
+      <c r="E9" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="142"/>
+      <c r="G9" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="144"/>
+      <c r="J9" s="155" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="156"/>
+      <c r="N9" s="102">
+        <v>4</v>
+      </c>
+      <c r="O9" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="105"/>
+      <c r="T9" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="125"/>
+    </row>
+    <row r="10" spans="4:21">
+      <c r="D10" s="141">
+        <v>5</v>
+      </c>
+      <c r="E10" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="142"/>
+      <c r="G10" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="144" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="144"/>
+      <c r="J10" s="155" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="156"/>
+      <c r="N10" s="102">
+        <v>5</v>
+      </c>
+      <c r="O10" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="105"/>
+      <c r="T10" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="125"/>
+    </row>
+    <row r="11" spans="4:21">
+      <c r="D11" s="141">
+        <v>6</v>
+      </c>
+      <c r="E11" s="142" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="142"/>
+      <c r="G11" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="144" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="144"/>
+      <c r="J11" s="155" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="156"/>
+      <c r="N11" s="102">
+        <v>6</v>
+      </c>
+      <c r="O11" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="105"/>
+      <c r="T11" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" s="125"/>
+    </row>
+    <row r="12" spans="4:21">
+      <c r="D12" s="145">
+        <v>7</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="85"/>
+      <c r="G12" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="147"/>
+      <c r="J12" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="158"/>
+      <c r="N12" s="102">
+        <v>7</v>
+      </c>
+      <c r="O12" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" s="105"/>
+      <c r="T12" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" s="125"/>
+    </row>
+    <row r="13" spans="4:21">
+      <c r="D13" s="145">
         <v>8</v>
       </c>
-      <c r="R7" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" s="46"/>
-      <c r="T7" s="114" t="s">
+      <c r="E13" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="85"/>
+      <c r="G13" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="147" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="147"/>
+      <c r="J13" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="158"/>
+      <c r="N13" s="102">
+        <v>8</v>
+      </c>
+      <c r="O13" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="105"/>
+      <c r="T13" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" s="125"/>
+    </row>
+    <row r="14" spans="4:21">
+      <c r="D14" s="145">
+        <v>9</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="85"/>
+      <c r="G14" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="147" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="147"/>
+      <c r="J14" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="158"/>
+      <c r="N14" s="102">
+        <v>9</v>
+      </c>
+      <c r="O14" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="S14" s="105"/>
+      <c r="T14" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="U14" s="125"/>
+    </row>
+    <row r="15" spans="4:21">
+      <c r="D15" s="145">
+        <v>10</v>
+      </c>
+      <c r="E15" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="85"/>
+      <c r="G15" s="146" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="147" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="147"/>
+      <c r="J15" s="157" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="158"/>
+      <c r="N15" s="102">
+        <v>10</v>
+      </c>
+      <c r="O15" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="S15" s="105"/>
+      <c r="T15" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" s="125"/>
+    </row>
+    <row r="16" spans="4:21">
+      <c r="D16" s="148">
+        <v>11</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="84"/>
+      <c r="G16" s="149" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="150" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="150"/>
+      <c r="J16" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="160"/>
+      <c r="N16" s="102">
+        <v>11</v>
+      </c>
+      <c r="O16" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="S16" s="105"/>
+      <c r="T16" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" s="125"/>
+    </row>
+    <row r="17" spans="4:21">
+      <c r="D17" s="148">
+        <v>12</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="84"/>
+      <c r="G17" s="149" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="150" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="150"/>
+      <c r="J17" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="160"/>
+      <c r="N17" s="102">
+        <v>12</v>
+      </c>
+      <c r="O17" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="S17" s="105"/>
+      <c r="T17" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="U17" s="125"/>
+    </row>
+    <row r="18" spans="4:21">
+      <c r="D18" s="148">
         <v>13</v>
       </c>
-      <c r="U7" s="115"/>
-    </row>
-    <row r="8" spans="4:21">
-      <c r="D8" s="92">
-        <v>3</v>
-      </c>
-      <c r="E8" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="95"/>
-      <c r="J8" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="107"/>
-      <c r="N8" s="43">
-        <v>3</v>
-      </c>
-      <c r="O8" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="R8" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" s="46"/>
-      <c r="T8" s="114" t="s">
+      <c r="E18" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="84"/>
+      <c r="G18" s="149" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="150" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="150"/>
+      <c r="J18" s="159" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="160"/>
+      <c r="N18" s="102">
         <v>13</v>
       </c>
-      <c r="U8" s="115"/>
-    </row>
-    <row r="9" spans="4:21">
-      <c r="D9" s="92">
-        <v>4</v>
-      </c>
-      <c r="E9" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="95"/>
-      <c r="J9" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="107"/>
-      <c r="N9" s="43">
-        <v>4</v>
-      </c>
-      <c r="O9" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="R9" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="S9" s="46"/>
-      <c r="T9" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="U9" s="115"/>
-    </row>
-    <row r="10" spans="4:21">
-      <c r="D10" s="92">
-        <v>5</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="95"/>
-      <c r="J10" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="107"/>
-      <c r="N10" s="43">
-        <v>5</v>
-      </c>
-      <c r="O10" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="R10" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10" s="46"/>
-      <c r="T10" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="U10" s="115"/>
-    </row>
-    <row r="11" spans="4:21">
-      <c r="D11" s="92">
-        <v>6</v>
-      </c>
-      <c r="E11" s="93" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="95"/>
-      <c r="J11" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="107"/>
-      <c r="N11" s="43">
-        <v>6</v>
-      </c>
-      <c r="O11" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="R11" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" s="46"/>
-      <c r="T11" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="U11" s="115"/>
-    </row>
-    <row r="12" spans="4:21">
-      <c r="D12" s="96">
-        <v>7</v>
-      </c>
-      <c r="E12" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="98" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="98"/>
-      <c r="J12" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="109"/>
-      <c r="N12" s="43">
-        <v>7</v>
-      </c>
-      <c r="O12" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="R12" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="S12" s="46"/>
-      <c r="T12" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="U12" s="115"/>
-    </row>
-    <row r="13" spans="4:21">
-      <c r="D13" s="96">
-        <v>8</v>
-      </c>
-      <c r="E13" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="98" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="98"/>
-      <c r="J13" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="109"/>
-      <c r="N13" s="43">
-        <v>8</v>
-      </c>
-      <c r="O13" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="R13" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="S13" s="46"/>
-      <c r="T13" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="U13" s="115"/>
-    </row>
-    <row r="14" spans="4:21">
-      <c r="D14" s="96">
-        <v>9</v>
-      </c>
-      <c r="E14" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="98"/>
-      <c r="J14" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="109"/>
-      <c r="N14" s="43">
-        <v>9</v>
-      </c>
-      <c r="O14" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="S14" s="46"/>
-      <c r="T14" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="U14" s="115"/>
-    </row>
-    <row r="15" ht="15.15" spans="4:21">
-      <c r="D15" s="96">
-        <v>10</v>
-      </c>
-      <c r="E15" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="85"/>
-      <c r="G15" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="98" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="98"/>
-      <c r="J15" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="109"/>
-      <c r="N15" s="48">
-        <v>10</v>
-      </c>
-      <c r="O15" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="R15" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="S15" s="51"/>
-      <c r="T15" s="116" t="s">
-        <v>13</v>
-      </c>
-      <c r="U15" s="117"/>
-    </row>
-    <row r="16" spans="4:11">
-      <c r="D16" s="99">
+      <c r="O18" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="S18" s="105"/>
+      <c r="T18" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="U18" s="125"/>
+    </row>
+    <row r="19" ht="15.15" spans="4:21">
+      <c r="D19" s="151">
+        <v>14</v>
+      </c>
+      <c r="E19" s="152" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="152"/>
+      <c r="G19" s="153" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="154" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="154"/>
+      <c r="J19" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="84"/>
-      <c r="G16" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="101"/>
-      <c r="J16" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="111"/>
-    </row>
-    <row r="17" spans="4:11">
-      <c r="D17" s="99">
-        <v>12</v>
-      </c>
-      <c r="E17" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="84"/>
-      <c r="G17" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="101"/>
-      <c r="J17" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="111"/>
-    </row>
-    <row r="18" ht="15.15" spans="4:11">
-      <c r="D18" s="99">
-        <v>13</v>
-      </c>
-      <c r="E18" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="101"/>
-      <c r="J18" s="110" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="111"/>
-    </row>
-    <row r="19" ht="15.15" spans="4:21">
-      <c r="D19" s="102">
+      <c r="K19" s="162"/>
+      <c r="N19" s="102">
         <v>14</v>
       </c>
-      <c r="E19" s="103" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="103"/>
-      <c r="G19" s="104" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="105" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="105"/>
-      <c r="J19" s="112" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="113"/>
-      <c r="N19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="32"/>
+      <c r="O19" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="S19" s="105"/>
+      <c r="T19" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="U19" s="125"/>
     </row>
     <row r="20" spans="14:21">
-      <c r="N20" s="3"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="33"/>
+      <c r="N20" s="102">
+        <v>15</v>
+      </c>
+      <c r="O20" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" s="105" t="s">
+        <v>69</v>
+      </c>
+      <c r="S20" s="105"/>
+      <c r="T20" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="125"/>
     </row>
     <row r="21" spans="14:21">
-      <c r="N21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="10"/>
-      <c r="T21" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="U21" s="34"/>
-    </row>
-    <row r="22" ht="15.15" spans="14:21">
-      <c r="N22" s="43">
-        <v>1</v>
-      </c>
-      <c r="O22" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="R22" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="S22" s="46"/>
-      <c r="T22" s="114" t="s">
-        <v>63</v>
-      </c>
-      <c r="U22" s="115"/>
+      <c r="N21" s="102">
+        <v>16</v>
+      </c>
+      <c r="O21" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="S21" s="105"/>
+      <c r="T21" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="U21" s="125"/>
+    </row>
+    <row r="22" spans="14:21">
+      <c r="N22" s="102">
+        <v>17</v>
+      </c>
+      <c r="O22" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="S22" s="105"/>
+      <c r="T22" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="U22" s="125"/>
     </row>
     <row r="23" spans="4:21">
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -3244,24 +4220,24 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="32"/>
-      <c r="N23" s="43">
-        <v>2</v>
-      </c>
-      <c r="O23" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="R23" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="S23" s="46"/>
-      <c r="T23" s="114" t="s">
-        <v>63</v>
-      </c>
-      <c r="U23" s="115"/>
+      <c r="N23" s="107">
+        <v>18</v>
+      </c>
+      <c r="O23" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="R23" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="S23" s="110"/>
+      <c r="T23" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="U23" s="131"/>
     </row>
     <row r="24" spans="4:21">
       <c r="D24" s="3"/>
@@ -3272,307 +4248,205 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="33"/>
-      <c r="N24" s="43">
-        <v>3</v>
-      </c>
-      <c r="O24" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="R24" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="S24" s="46"/>
-      <c r="T24" s="114" t="s">
-        <v>63</v>
-      </c>
-      <c r="U24" s="115"/>
+      <c r="N24" s="102">
+        <v>19</v>
+      </c>
+      <c r="O24" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="S24" s="105"/>
+      <c r="T24" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="U24" s="125"/>
     </row>
     <row r="25" spans="4:21">
       <c r="D25" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K25" s="34"/>
-      <c r="N25" s="43">
-        <v>4</v>
-      </c>
-      <c r="O25" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="R25" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="S25" s="46"/>
-      <c r="T25" s="114" t="s">
-        <v>63</v>
-      </c>
-      <c r="U25" s="115"/>
-    </row>
-    <row r="26" spans="4:21">
+      <c r="N25" s="102">
+        <v>20</v>
+      </c>
+      <c r="O25" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="S25" s="105"/>
+      <c r="T25" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="U25" s="125"/>
+    </row>
+    <row r="26" ht="15.15" spans="4:21">
       <c r="D26" s="43">
         <v>1</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F26" s="44"/>
       <c r="G26" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H26" s="46" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I26" s="46"/>
-      <c r="J26" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="115"/>
-      <c r="N26" s="43">
-        <v>5</v>
-      </c>
-      <c r="O26" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="R26" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="S26" s="46"/>
-      <c r="T26" s="114" t="s">
-        <v>63</v>
-      </c>
-      <c r="U26" s="115"/>
-    </row>
-    <row r="27" spans="4:21">
+      <c r="J26" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="164"/>
+      <c r="N26" s="107">
+        <v>21</v>
+      </c>
+      <c r="O26" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26" s="110"/>
+      <c r="T26" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="U26" s="131"/>
+    </row>
+    <row r="27" spans="4:11">
       <c r="D27" s="43">
         <v>2</v>
       </c>
       <c r="E27" s="44" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F27" s="44"/>
       <c r="G27" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H27" s="46" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I27" s="46"/>
-      <c r="J27" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="115"/>
-      <c r="N27" s="43">
-        <v>6</v>
-      </c>
-      <c r="O27" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="R27" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="S27" s="46"/>
-      <c r="T27" s="114" t="s">
-        <v>63</v>
-      </c>
-      <c r="U27" s="115"/>
-    </row>
-    <row r="28" spans="4:21">
+      <c r="J27" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="164"/>
+    </row>
+    <row r="28" spans="4:11">
       <c r="D28" s="43">
         <v>3</v>
       </c>
       <c r="E28" s="44" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F28" s="44"/>
       <c r="G28" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H28" s="46" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I28" s="46"/>
-      <c r="J28" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="115"/>
-      <c r="N28" s="43">
-        <v>7</v>
-      </c>
-      <c r="O28" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="R28" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="S28" s="46"/>
-      <c r="T28" s="114" t="s">
-        <v>63</v>
-      </c>
-      <c r="U28" s="115"/>
-    </row>
-    <row r="29" spans="4:21">
+      <c r="J28" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="164"/>
+    </row>
+    <row r="29" spans="4:11">
       <c r="D29" s="43">
         <v>4</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H29" s="46" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I29" s="46"/>
-      <c r="J29" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="115"/>
-      <c r="N29" s="43">
-        <v>8</v>
-      </c>
-      <c r="O29" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="R29" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="S29" s="46"/>
-      <c r="T29" s="114" t="s">
-        <v>63</v>
-      </c>
-      <c r="U29" s="115"/>
-    </row>
-    <row r="30" spans="4:21">
+      <c r="J29" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="164"/>
+    </row>
+    <row r="30" spans="4:11">
       <c r="D30" s="43">
         <v>5</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F30" s="44"/>
       <c r="G30" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H30" s="46" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I30" s="46"/>
-      <c r="J30" s="114" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="115"/>
-      <c r="N30" s="43">
-        <v>9</v>
-      </c>
-      <c r="O30" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="R30" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="S30" s="46"/>
-      <c r="T30" s="114" t="s">
-        <v>63</v>
-      </c>
-      <c r="U30" s="115"/>
-    </row>
-    <row r="31" ht="15.15" spans="4:21">
+      <c r="J30" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="164"/>
+    </row>
+    <row r="31" ht="15.15" spans="4:11">
       <c r="D31" s="48">
         <v>6</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F31" s="49"/>
       <c r="G31" s="50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H31" s="51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I31" s="51"/>
-      <c r="J31" s="116" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="117"/>
-      <c r="N31" s="48">
-        <v>10</v>
-      </c>
-      <c r="O31" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="R31" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="S31" s="51"/>
-      <c r="T31" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="U31" s="117"/>
-    </row>
-    <row r="33" ht="15.15"/>
-    <row r="34" ht="15.15" spans="14:21">
-      <c r="N34" s="1" t="s">
+      <c r="J31" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="166"/>
+    </row>
+    <row r="34" ht="15.15"/>
+    <row r="35" spans="4:11">
+      <c r="D35" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="32"/>
-    </row>
-    <row r="35" spans="4:21">
-      <c r="D35" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3581,16 +4455,8 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="32"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="33"/>
-    </row>
-    <row r="36" spans="4:21">
+    </row>
+    <row r="36" spans="4:11">
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -3599,591 +4465,808 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="33"/>
-      <c r="N36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O36" s="6" t="s">
+    </row>
+    <row r="37" spans="4:11">
+      <c r="D37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="8" t="s">
+      <c r="E37" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="R36" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="S36" s="10"/>
-      <c r="T36" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="U36" s="34"/>
-    </row>
-    <row r="37" spans="4:21">
-      <c r="D37" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K37" s="34"/>
-      <c r="N37" s="43">
-        <v>1</v>
-      </c>
-      <c r="O37" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="R37" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="S37" s="46"/>
-      <c r="T37" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="U37" s="115"/>
-    </row>
-    <row r="38" spans="4:21">
+    </row>
+    <row r="38" spans="4:11">
       <c r="D38" s="43">
         <v>1</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="45" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="H38" s="46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I38" s="46"/>
-      <c r="J38" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" s="115"/>
-      <c r="N38" s="43">
-        <v>2</v>
-      </c>
-      <c r="O38" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="R38" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="S38" s="46"/>
-      <c r="T38" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="U38" s="115"/>
-    </row>
-    <row r="39" spans="4:21">
+      <c r="J38" s="163" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="164"/>
+    </row>
+    <row r="39" spans="4:11">
       <c r="D39" s="43">
         <v>2</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F39" s="44"/>
       <c r="G39" s="45" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="H39" s="46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I39" s="46"/>
-      <c r="J39" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" s="115"/>
-      <c r="N39" s="43">
-        <v>3</v>
-      </c>
-      <c r="O39" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="R39" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="S39" s="46"/>
-      <c r="T39" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="U39" s="115"/>
-    </row>
-    <row r="40" spans="4:21">
+      <c r="J39" s="163" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="164"/>
+    </row>
+    <row r="40" spans="4:11">
       <c r="D40" s="43">
         <v>3</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F40" s="44"/>
       <c r="G40" s="45" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="H40" s="46" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I40" s="46"/>
-      <c r="J40" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" s="115"/>
-      <c r="N40" s="43">
-        <v>4</v>
-      </c>
-      <c r="O40" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="R40" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="S40" s="46"/>
-      <c r="T40" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="U40" s="115"/>
-    </row>
-    <row r="41" spans="4:21">
+      <c r="J40" s="163" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="164"/>
+    </row>
+    <row r="41" spans="4:11">
       <c r="D41" s="43">
         <v>4</v>
       </c>
       <c r="E41" s="44" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F41" s="44"/>
       <c r="G41" s="45" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="H41" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I41" s="46"/>
-      <c r="J41" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="K41" s="115"/>
-      <c r="N41" s="43">
-        <v>5</v>
-      </c>
-      <c r="O41" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="R41" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="S41" s="46"/>
-      <c r="T41" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="U41" s="115"/>
-    </row>
-    <row r="42" spans="4:21">
+      <c r="J41" s="163" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="164"/>
+    </row>
+    <row r="42" spans="4:11">
       <c r="D42" s="43">
         <v>5</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F42" s="44"/>
       <c r="G42" s="45" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="H42" s="46" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I42" s="46"/>
-      <c r="J42" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" s="115"/>
-      <c r="N42" s="43">
-        <v>6</v>
-      </c>
-      <c r="O42" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="R42" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="S42" s="46"/>
-      <c r="T42" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="U42" s="115"/>
-    </row>
-    <row r="43" spans="4:21">
+      <c r="J42" s="163" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="164"/>
+    </row>
+    <row r="43" spans="4:11">
       <c r="D43" s="43">
         <v>6</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F43" s="44"/>
       <c r="G43" s="45" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="H43" s="46" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="I43" s="46"/>
-      <c r="J43" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" s="115"/>
-      <c r="N43" s="43">
-        <v>7</v>
-      </c>
-      <c r="O43" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="S43" s="46"/>
-      <c r="T43" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="U43" s="115"/>
-    </row>
-    <row r="44" spans="4:21">
+      <c r="J43" s="163" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="164"/>
+    </row>
+    <row r="44" spans="4:11">
       <c r="D44" s="43">
         <v>7</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F44" s="44"/>
       <c r="G44" s="45" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="H44" s="46" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="I44" s="46"/>
-      <c r="J44" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="K44" s="115"/>
-      <c r="N44" s="43">
-        <v>8</v>
-      </c>
-      <c r="O44" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="R44" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="S44" s="46"/>
-      <c r="T44" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="U44" s="115"/>
-    </row>
-    <row r="45" spans="4:21">
+      <c r="J44" s="163" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="164"/>
+    </row>
+    <row r="45" spans="4:11">
       <c r="D45" s="43">
         <v>8</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F45" s="44"/>
       <c r="G45" s="45" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="H45" s="46" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="I45" s="46"/>
-      <c r="J45" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" s="115"/>
-      <c r="N45" s="43">
-        <v>9</v>
-      </c>
-      <c r="O45" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="S45" s="46"/>
-      <c r="T45" s="114" t="s">
-        <v>13</v>
-      </c>
-      <c r="U45" s="115"/>
-    </row>
-    <row r="46" spans="4:21">
+      <c r="J45" s="163" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="164"/>
+    </row>
+    <row r="46" ht="15.15" spans="4:11">
       <c r="D46" s="48">
         <v>9</v>
       </c>
       <c r="E46" s="49" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="F46" s="49"/>
       <c r="G46" s="50" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="H46" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="I46" s="51"/>
+      <c r="J46" s="165" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="166"/>
+    </row>
+    <row r="48" ht="15.15"/>
+    <row r="49" spans="4:11">
+      <c r="D49" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92"/>
+      <c r="K49" s="113"/>
+    </row>
+    <row r="50" spans="4:11">
+      <c r="D50" s="93"/>
+      <c r="E50" s="94"/>
+      <c r="F50" s="94"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="94"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
+      <c r="K50" s="116"/>
+    </row>
+    <row r="51" spans="4:11">
+      <c r="D51" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="97"/>
+      <c r="G51" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="100"/>
+      <c r="J51" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" s="119"/>
+    </row>
+    <row r="52" spans="4:11">
+      <c r="D52" s="102">
+        <v>1</v>
+      </c>
+      <c r="E52" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" s="103"/>
+      <c r="G52" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" s="105" t="s">
+        <v>117</v>
+      </c>
+      <c r="I52" s="105"/>
+      <c r="J52" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="K52" s="125"/>
+    </row>
+    <row r="53" spans="4:11">
+      <c r="D53" s="102">
+        <v>2</v>
+      </c>
+      <c r="E53" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="103"/>
+      <c r="G53" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="105" t="s">
+        <v>119</v>
+      </c>
+      <c r="I53" s="105"/>
+      <c r="J53" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="125"/>
+    </row>
+    <row r="54" spans="4:11">
+      <c r="D54" s="102">
+        <v>3</v>
+      </c>
+      <c r="E54" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="103"/>
+      <c r="G54" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="I54" s="105"/>
+      <c r="J54" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="125"/>
+    </row>
+    <row r="55" spans="4:11">
+      <c r="D55" s="102">
+        <v>4</v>
+      </c>
+      <c r="E55" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="103"/>
+      <c r="G55" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="I55" s="105"/>
+      <c r="J55" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="125"/>
+    </row>
+    <row r="56" spans="4:11">
+      <c r="D56" s="102">
+        <v>5</v>
+      </c>
+      <c r="E56" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="103"/>
+      <c r="G56" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="H56" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="I56" s="105"/>
+      <c r="J56" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="125"/>
+    </row>
+    <row r="57" spans="4:11">
+      <c r="D57" s="102">
+        <v>6</v>
+      </c>
+      <c r="E57" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" s="103"/>
+      <c r="G57" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="H57" s="105" t="s">
+        <v>127</v>
+      </c>
+      <c r="I57" s="105"/>
+      <c r="J57" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="125"/>
+    </row>
+    <row r="58" spans="4:11">
+      <c r="D58" s="102">
+        <v>7</v>
+      </c>
+      <c r="E58" s="103"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" s="105"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="106"/>
+      <c r="K58" s="125"/>
+    </row>
+    <row r="59" spans="4:11">
+      <c r="D59" s="102">
+        <v>8</v>
+      </c>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="H59" s="105"/>
+      <c r="I59" s="105"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="125"/>
+    </row>
+    <row r="60" ht="15.15" spans="4:11">
+      <c r="D60" s="107">
+        <v>9</v>
+      </c>
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="110"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="111"/>
+      <c r="K60" s="131"/>
+    </row>
+    <row r="62" ht="15.15"/>
+    <row r="63" spans="4:11">
+      <c r="D63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="32"/>
+    </row>
+    <row r="64" spans="4:11">
+      <c r="D64" s="3"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="33"/>
+    </row>
+    <row r="65" spans="4:11">
+      <c r="D65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" s="10"/>
+      <c r="J65" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K65" s="34"/>
+    </row>
+    <row r="66" spans="4:11">
+      <c r="D66" s="43">
+        <v>1</v>
+      </c>
+      <c r="E66" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" s="44"/>
+      <c r="G66" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="I66" s="46"/>
+      <c r="J66" s="163" t="s">
+        <v>131</v>
+      </c>
+      <c r="K66" s="164"/>
+    </row>
+    <row r="67" spans="4:11">
+      <c r="D67" s="43">
+        <v>2</v>
+      </c>
+      <c r="E67" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="I46" s="51"/>
-      <c r="J46" s="116" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" s="117"/>
-      <c r="N46" s="48">
-        <v>10</v>
-      </c>
-      <c r="O46" s="49" t="s">
+      <c r="F67" s="44"/>
+      <c r="G67" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="50" t="s">
+      <c r="I67" s="46"/>
+      <c r="J67" s="163" t="s">
+        <v>134</v>
+      </c>
+      <c r="K67" s="164"/>
+    </row>
+    <row r="68" spans="4:11">
+      <c r="D68" s="43">
+        <v>3</v>
+      </c>
+      <c r="E68" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68" s="44"/>
+      <c r="G68" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="I68" s="46"/>
+      <c r="J68" s="163" t="s">
+        <v>137</v>
+      </c>
+      <c r="K68" s="164"/>
+    </row>
+    <row r="69" spans="4:11">
+      <c r="D69" s="43">
+        <v>4</v>
+      </c>
+      <c r="E69" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="F69" s="103"/>
+      <c r="G69" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="I69" s="105"/>
+      <c r="J69" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="K69" s="125"/>
+    </row>
+    <row r="70" spans="4:11">
+      <c r="D70" s="43">
+        <v>5</v>
+      </c>
+      <c r="E70" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="F70" s="103"/>
+      <c r="G70" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="I70" s="105"/>
+      <c r="J70" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="K70" s="125"/>
+    </row>
+    <row r="71" spans="4:11">
+      <c r="D71" s="43">
+        <v>6</v>
+      </c>
+      <c r="E71" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="F71" s="103"/>
+      <c r="G71" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="I71" s="105"/>
+      <c r="J71" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="K71" s="125"/>
+    </row>
+    <row r="72" spans="4:11">
+      <c r="D72" s="43">
+        <v>7</v>
+      </c>
+      <c r="E72" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="F72" s="103"/>
+      <c r="G72" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="I72" s="105"/>
+      <c r="J72" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="K72" s="125"/>
+    </row>
+    <row r="73" ht="15.15" spans="4:11">
+      <c r="D73" s="48">
         <v>8</v>
       </c>
-      <c r="R46" s="51" t="s">
+      <c r="E73" s="108" t="s">
+        <v>147</v>
+      </c>
+      <c r="F73" s="108"/>
+      <c r="G73" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="110" t="s">
+        <v>148</v>
+      </c>
+      <c r="I73" s="110"/>
+      <c r="J73" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="K73" s="131"/>
+    </row>
+    <row r="75" ht="15.15"/>
+    <row r="76" spans="4:11">
+      <c r="D76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="32"/>
+    </row>
+    <row r="77" spans="4:11">
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="33"/>
+    </row>
+    <row r="78" spans="4:11">
+      <c r="D78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="10"/>
+      <c r="J78" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K78" s="34"/>
+    </row>
+    <row r="79" spans="4:11">
+      <c r="D79" s="43">
+        <v>1</v>
+      </c>
+      <c r="E79" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79" s="44"/>
+      <c r="G79" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="I79" s="46"/>
+      <c r="J79" s="163" t="s">
+        <v>131</v>
+      </c>
+      <c r="K79" s="164"/>
+    </row>
+    <row r="80" spans="4:11">
+      <c r="D80" s="43">
+        <v>2</v>
+      </c>
+      <c r="E80" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="F80" s="44"/>
+      <c r="G80" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I80" s="46"/>
+      <c r="J80" s="163" t="s">
         <v>134</v>
       </c>
-      <c r="S46" s="51"/>
-      <c r="T46" s="116" t="s">
-        <v>13</v>
-      </c>
-      <c r="U46" s="117"/>
-    </row>
-    <row r="47" ht="15.15" spans="14:21">
-      <c r="N47" s="118">
-        <v>11</v>
-      </c>
-      <c r="O47" s="119" t="s">
-        <v>135</v>
-      </c>
-      <c r="P47" s="119"/>
-      <c r="Q47" s="120" t="s">
+      <c r="K80" s="164"/>
+    </row>
+    <row r="81" spans="4:11">
+      <c r="D81" s="43">
+        <v>3</v>
+      </c>
+      <c r="E81" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="F81" s="44"/>
+      <c r="G81" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="I81" s="46"/>
+      <c r="J81" s="163" t="s">
+        <v>152</v>
+      </c>
+      <c r="K81" s="164"/>
+    </row>
+    <row r="82" spans="4:11">
+      <c r="D82" s="43">
+        <v>4</v>
+      </c>
+      <c r="E82" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="F82" s="103"/>
+      <c r="G82" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="105" t="s">
+        <v>139</v>
+      </c>
+      <c r="I82" s="105"/>
+      <c r="J82" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="K82" s="125"/>
+    </row>
+    <row r="83" spans="4:11">
+      <c r="D83" s="43">
+        <v>5</v>
+      </c>
+      <c r="E83" s="103" t="s">
+        <v>147</v>
+      </c>
+      <c r="F83" s="103"/>
+      <c r="G83" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="I83" s="105"/>
+      <c r="J83" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="K83" s="125"/>
+    </row>
+    <row r="84" spans="4:11">
+      <c r="D84" s="43">
+        <v>6</v>
+      </c>
+      <c r="E84" s="103"/>
+      <c r="F84" s="103"/>
+      <c r="G84" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="I84" s="105"/>
+      <c r="J84" s="106"/>
+      <c r="K84" s="125"/>
+    </row>
+    <row r="85" spans="4:11">
+      <c r="D85" s="43">
+        <v>7</v>
+      </c>
+      <c r="E85" s="103"/>
+      <c r="F85" s="103"/>
+      <c r="G85" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="I85" s="105"/>
+      <c r="J85" s="106"/>
+      <c r="K85" s="125"/>
+    </row>
+    <row r="86" ht="15.15" spans="4:11">
+      <c r="D86" s="48">
         <v>8</v>
       </c>
-      <c r="R47" s="121" t="s">
-        <v>136</v>
-      </c>
-      <c r="S47" s="121"/>
-      <c r="T47" s="122" t="s">
-        <v>13</v>
-      </c>
-      <c r="U47" s="123"/>
-    </row>
-    <row r="48" ht="15.15" spans="14:21">
-      <c r="N48" s="118">
-        <v>12</v>
-      </c>
-      <c r="O48" s="119" t="s">
-        <v>135</v>
-      </c>
-      <c r="P48" s="119"/>
-      <c r="Q48" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R48" s="121" t="s">
-        <v>137</v>
-      </c>
-      <c r="S48" s="121"/>
-      <c r="T48" s="122" t="s">
-        <v>13</v>
-      </c>
-      <c r="U48" s="123"/>
-    </row>
-    <row r="49" spans="4:11">
-      <c r="D49" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="32"/>
-    </row>
-    <row r="50" spans="4:11">
-      <c r="D50" s="3"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="33"/>
-    </row>
-    <row r="51" spans="4:11">
-      <c r="D51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I51" s="10"/>
-      <c r="J51" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K51" s="34"/>
-    </row>
-    <row r="52" spans="4:11">
-      <c r="D52" s="43">
-        <v>1</v>
-      </c>
-      <c r="E52" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="F52" s="44"/>
-      <c r="G52" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="I52" s="46"/>
-      <c r="J52" s="114" t="s">
-        <v>141</v>
-      </c>
-      <c r="K52" s="115"/>
-    </row>
-    <row r="53" spans="4:11">
-      <c r="D53" s="43">
-        <v>2</v>
-      </c>
-      <c r="E53" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="F53" s="44"/>
-      <c r="G53" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="I53" s="46"/>
-      <c r="J53" s="114" t="s">
-        <v>144</v>
-      </c>
-      <c r="K53" s="115"/>
-    </row>
-    <row r="54" spans="4:11">
-      <c r="D54" s="43">
-        <v>3</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="F54" s="44"/>
-      <c r="G54" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="I54" s="46"/>
-      <c r="J54" s="114" t="s">
-        <v>147</v>
-      </c>
-      <c r="K54" s="115"/>
-    </row>
-    <row r="55" spans="4:11">
-      <c r="D55" s="43">
-        <v>4</v>
-      </c>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="114"/>
-      <c r="K55" s="115"/>
-    </row>
-    <row r="56" spans="4:11">
-      <c r="D56" s="43">
-        <v>5</v>
-      </c>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="114"/>
-      <c r="K56" s="115"/>
-    </row>
-    <row r="57" ht="15.15" spans="4:11">
-      <c r="D57" s="48">
-        <v>6</v>
-      </c>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="116"/>
-      <c r="K57" s="117"/>
+      <c r="E86" s="108"/>
+      <c r="F86" s="108"/>
+      <c r="G86" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="110" t="s">
+        <v>148</v>
+      </c>
+      <c r="I86" s="110"/>
+      <c r="J86" s="111"/>
+      <c r="K86" s="131"/>
     </row>
   </sheetData>
-  <mergeCells count="229">
+  <mergeCells count="253">
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
@@ -4253,15 +5336,30 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:K16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:K17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="T21:U21"/>
@@ -4289,102 +5387,48 @@
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="J27:K27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="J28:K28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="J30:K30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="J31:K31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="J37:K37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="T37:U37"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="J38:K38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T38:U38"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="J39:K39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="T39:U39"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="J40:K40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="J41:K41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T41:U41"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="J42:K42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T42:U42"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="J43:K43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:U43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="J44:K44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="T44:U44"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="J45:K45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="T45:U45"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="J46:K46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:U48"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="J51:K51"/>
@@ -4406,13 +5450,76 @@
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="H57:I57"/>
     <mergeCell ref="J57:K57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
     <mergeCell ref="D3:K4"/>
     <mergeCell ref="D23:K24"/>
     <mergeCell ref="N3:U4"/>
-    <mergeCell ref="N19:U20"/>
     <mergeCell ref="D35:K36"/>
     <mergeCell ref="D49:K50"/>
-    <mergeCell ref="N34:U35"/>
+    <mergeCell ref="D63:K64"/>
+    <mergeCell ref="D76:K77"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E7:F7" location="子界面!A1" display="系统检验结果"/>
@@ -4425,6 +5532,1666 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:Q73"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="34.1666666666667" customWidth="1"/>
+    <col min="9" max="9" width="22.9907407407407" customWidth="1"/>
+    <col min="17" max="17" width="16.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.15"/>
+    <row r="2" spans="2:17">
+      <c r="B2" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="113"/>
+      <c r="L2" s="114" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="132"/>
+    </row>
+    <row r="3" ht="15.15" spans="2:17">
+      <c r="B3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="116"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="133"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="100"/>
+      <c r="H4" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="119"/>
+      <c r="L4" s="120" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="121"/>
+      <c r="N4" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="134" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="102">
+        <v>1</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="105"/>
+      <c r="H5" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" s="125"/>
+      <c r="L5" s="126" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="127" t="s">
+        <v>160</v>
+      </c>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" ht="15.15" spans="2:17">
+      <c r="B6" s="102">
+        <v>2</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="105"/>
+      <c r="H6" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="125"/>
+      <c r="L6" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="M6" s="50"/>
+      <c r="N6" s="128" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="136" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15" spans="2:17">
+      <c r="B7" s="102">
+        <v>3</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="105"/>
+      <c r="H7" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="125"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="137"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="102">
+        <v>4</v>
+      </c>
+      <c r="C8" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="105"/>
+      <c r="H8" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="125"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="102">
+        <v>5</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="105" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="105"/>
+      <c r="H9" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="125"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="102">
+        <v>6</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="103"/>
+      <c r="E10" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="105"/>
+      <c r="H10" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="125"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="102">
+        <v>7</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="105"/>
+      <c r="H11" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I11" s="125"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="102">
+        <v>8</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="103"/>
+      <c r="E12" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="125"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="102">
+        <v>9</v>
+      </c>
+      <c r="C13" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="103"/>
+      <c r="E13" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="105"/>
+      <c r="H13" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="125"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="102">
+        <v>10</v>
+      </c>
+      <c r="C14" s="103" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="105"/>
+      <c r="H14" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="125"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="102">
+        <v>11</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="105"/>
+      <c r="H15" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" s="125"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="102">
+        <v>12</v>
+      </c>
+      <c r="C16" s="103" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="105"/>
+      <c r="H16" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="125"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="102">
+        <v>13</v>
+      </c>
+      <c r="C17" s="103" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="103"/>
+      <c r="E17" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="105" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="125"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="102">
+        <v>14</v>
+      </c>
+      <c r="C18" s="103" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="103"/>
+      <c r="E18" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" s="125"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="102">
+        <v>15</v>
+      </c>
+      <c r="C19" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="105" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="105"/>
+      <c r="H19" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="125"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="102">
+        <v>16</v>
+      </c>
+      <c r="C20" s="103" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="103"/>
+      <c r="E20" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="105" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I20" s="125"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="102">
+        <v>17</v>
+      </c>
+      <c r="C21" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="103"/>
+      <c r="E21" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="105"/>
+      <c r="H21" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" s="125"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="102">
+        <v>18</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="103"/>
+      <c r="E22" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="105"/>
+      <c r="H22" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="125"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="102">
+        <v>19</v>
+      </c>
+      <c r="C23" s="103" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="103"/>
+      <c r="E23" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="105" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="105"/>
+      <c r="H23" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="125"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="102">
+        <v>20</v>
+      </c>
+      <c r="C24" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="103"/>
+      <c r="E24" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="105" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="105"/>
+      <c r="H24" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" s="125"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="102">
+        <v>21</v>
+      </c>
+      <c r="C25" s="103" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="103"/>
+      <c r="E25" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="105" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="105"/>
+      <c r="H25" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I25" s="125"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="102">
+        <v>22</v>
+      </c>
+      <c r="C26" s="103" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="103"/>
+      <c r="E26" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="105" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" s="105"/>
+      <c r="H26" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" s="125"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="102">
+        <v>23</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="103"/>
+      <c r="E27" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="105" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" s="105"/>
+      <c r="H27" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="I27" s="125"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="107">
+        <v>24</v>
+      </c>
+      <c r="C28" s="108" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="108"/>
+      <c r="E28" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="110" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" s="110"/>
+      <c r="H28" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="I28" s="131"/>
+    </row>
+    <row r="30" ht="15.15"/>
+    <row r="31" spans="2:9">
+      <c r="B31" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="113"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="93"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="116"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="97"/>
+      <c r="E33" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="100"/>
+      <c r="H33" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="119"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="102">
+        <v>1</v>
+      </c>
+      <c r="C34" s="112" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="112"/>
+      <c r="E34" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="105" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="105"/>
+      <c r="H34" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="125"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="102">
+        <v>2</v>
+      </c>
+      <c r="C35" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="D35" s="112"/>
+      <c r="E35" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="105" t="s">
+        <v>215</v>
+      </c>
+      <c r="G35" s="105"/>
+      <c r="H35" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="125"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="102">
+        <v>3</v>
+      </c>
+      <c r="C36" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" s="112"/>
+      <c r="E36" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="G36" s="105"/>
+      <c r="H36" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="125"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="102">
+        <v>4</v>
+      </c>
+      <c r="C37" s="112" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="112"/>
+      <c r="E37" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="G37" s="105"/>
+      <c r="H37" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="125"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="102">
+        <v>5</v>
+      </c>
+      <c r="C38" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="112"/>
+      <c r="E38" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="105" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="105"/>
+      <c r="H38" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="125"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="102">
+        <v>6</v>
+      </c>
+      <c r="C39" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" s="112"/>
+      <c r="E39" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="G39" s="105"/>
+      <c r="H39" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="125"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="102">
+        <v>7</v>
+      </c>
+      <c r="C40" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" s="112"/>
+      <c r="E40" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="G40" s="105"/>
+      <c r="H40" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="125"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="102">
+        <v>8</v>
+      </c>
+      <c r="C41" s="112" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="112"/>
+      <c r="E41" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="105"/>
+      <c r="H41" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="125"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="102">
+        <v>9</v>
+      </c>
+      <c r="C42" s="112" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="112"/>
+      <c r="E42" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="105" t="s">
+        <v>229</v>
+      </c>
+      <c r="G42" s="105"/>
+      <c r="H42" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="125"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="102">
+        <v>10</v>
+      </c>
+      <c r="C43" s="112" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="112"/>
+      <c r="E43" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="G43" s="105"/>
+      <c r="H43" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="125"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="102">
+        <v>11</v>
+      </c>
+      <c r="C44" s="112" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="112"/>
+      <c r="E44" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="G44" s="105"/>
+      <c r="H44" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="125"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="102">
+        <v>12</v>
+      </c>
+      <c r="C45" s="112" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" s="112"/>
+      <c r="E45" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="G45" s="105"/>
+      <c r="H45" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="125"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="102">
+        <v>13</v>
+      </c>
+      <c r="C46" s="112" t="s">
+        <v>236</v>
+      </c>
+      <c r="D46" s="112"/>
+      <c r="E46" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="105" t="s">
+        <v>237</v>
+      </c>
+      <c r="G46" s="105"/>
+      <c r="H46" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="125"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="102">
+        <v>14</v>
+      </c>
+      <c r="C47" s="112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="112"/>
+      <c r="E47" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="105" t="s">
+        <v>239</v>
+      </c>
+      <c r="G47" s="105"/>
+      <c r="H47" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="125"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="102">
+        <v>15</v>
+      </c>
+      <c r="C48" s="112" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" s="112"/>
+      <c r="E48" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="G48" s="105"/>
+      <c r="H48" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="125"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="102">
+        <v>16</v>
+      </c>
+      <c r="C49" s="112" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="112"/>
+      <c r="E49" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="G49" s="105"/>
+      <c r="H49" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="125"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="102">
+        <v>17</v>
+      </c>
+      <c r="C50" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" s="112"/>
+      <c r="E50" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="105" t="s">
+        <v>245</v>
+      </c>
+      <c r="G50" s="105"/>
+      <c r="H50" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="125"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="102">
+        <v>18</v>
+      </c>
+      <c r="C51" s="112" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" s="112"/>
+      <c r="E51" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="105" t="s">
+        <v>247</v>
+      </c>
+      <c r="G51" s="105"/>
+      <c r="H51" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="125"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="102">
+        <v>19</v>
+      </c>
+      <c r="C52" s="112" t="s">
+        <v>248</v>
+      </c>
+      <c r="D52" s="112"/>
+      <c r="E52" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="105" t="s">
+        <v>249</v>
+      </c>
+      <c r="G52" s="105"/>
+      <c r="H52" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="125"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="102">
+        <v>20</v>
+      </c>
+      <c r="C53" s="112" t="s">
+        <v>250</v>
+      </c>
+      <c r="D53" s="112"/>
+      <c r="E53" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="105" t="s">
+        <v>251</v>
+      </c>
+      <c r="G53" s="105"/>
+      <c r="H53" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="125"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="102">
+        <v>21</v>
+      </c>
+      <c r="C54" s="112" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="112"/>
+      <c r="E54" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="105" t="s">
+        <v>253</v>
+      </c>
+      <c r="G54" s="105"/>
+      <c r="H54" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="125"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="102">
+        <v>22</v>
+      </c>
+      <c r="C55" s="112" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" s="112"/>
+      <c r="E55" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="105" t="s">
+        <v>255</v>
+      </c>
+      <c r="G55" s="105"/>
+      <c r="H55" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="125"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="102">
+        <v>23</v>
+      </c>
+      <c r="C56" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" s="112"/>
+      <c r="E56" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="105" t="s">
+        <v>257</v>
+      </c>
+      <c r="G56" s="105"/>
+      <c r="H56" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="125"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="102">
+        <v>24</v>
+      </c>
+      <c r="C57" s="112" t="s">
+        <v>258</v>
+      </c>
+      <c r="D57" s="112"/>
+      <c r="E57" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="105" t="s">
+        <v>259</v>
+      </c>
+      <c r="G57" s="105"/>
+      <c r="H57" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="125"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="102">
+        <v>25</v>
+      </c>
+      <c r="C58" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="D58" s="112"/>
+      <c r="E58" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="105" t="s">
+        <v>261</v>
+      </c>
+      <c r="G58" s="105"/>
+      <c r="H58" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="125"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="102">
+        <v>26</v>
+      </c>
+      <c r="C59" s="112" t="s">
+        <v>262</v>
+      </c>
+      <c r="D59" s="112"/>
+      <c r="E59" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="105" t="s">
+        <v>263</v>
+      </c>
+      <c r="G59" s="105"/>
+      <c r="H59" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="125"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="102">
+        <v>27</v>
+      </c>
+      <c r="C60" s="112" t="s">
+        <v>264</v>
+      </c>
+      <c r="D60" s="112"/>
+      <c r="E60" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="105" t="s">
+        <v>265</v>
+      </c>
+      <c r="G60" s="105"/>
+      <c r="H60" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="125"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="102">
+        <v>28</v>
+      </c>
+      <c r="C61" s="112" t="s">
+        <v>266</v>
+      </c>
+      <c r="D61" s="112"/>
+      <c r="E61" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="105" t="s">
+        <v>267</v>
+      </c>
+      <c r="G61" s="105"/>
+      <c r="H61" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="125"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="102">
+        <v>29</v>
+      </c>
+      <c r="C62" s="112" t="s">
+        <v>268</v>
+      </c>
+      <c r="D62" s="112"/>
+      <c r="E62" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="105" t="s">
+        <v>269</v>
+      </c>
+      <c r="G62" s="105"/>
+      <c r="H62" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="125"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="102">
+        <v>30</v>
+      </c>
+      <c r="C63" s="112" t="s">
+        <v>270</v>
+      </c>
+      <c r="D63" s="112"/>
+      <c r="E63" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="105" t="s">
+        <v>271</v>
+      </c>
+      <c r="G63" s="105"/>
+      <c r="H63" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="125"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="102">
+        <v>31</v>
+      </c>
+      <c r="C64" s="112" t="s">
+        <v>272</v>
+      </c>
+      <c r="D64" s="112"/>
+      <c r="E64" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="105" t="s">
+        <v>273</v>
+      </c>
+      <c r="G64" s="105"/>
+      <c r="H64" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="125"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="102">
+        <v>32</v>
+      </c>
+      <c r="C65" s="112" t="s">
+        <v>274</v>
+      </c>
+      <c r="D65" s="112"/>
+      <c r="E65" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="105" t="s">
+        <v>275</v>
+      </c>
+      <c r="G65" s="105"/>
+      <c r="H65" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="125"/>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="102">
+        <v>33</v>
+      </c>
+      <c r="C66" s="112" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" s="112"/>
+      <c r="E66" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="105" t="s">
+        <v>277</v>
+      </c>
+      <c r="G66" s="105"/>
+      <c r="H66" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="125"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="102">
+        <v>34</v>
+      </c>
+      <c r="C67" s="112" t="s">
+        <v>278</v>
+      </c>
+      <c r="D67" s="112"/>
+      <c r="E67" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="G67" s="105"/>
+      <c r="H67" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="125"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="102">
+        <v>35</v>
+      </c>
+      <c r="C68" s="112" t="s">
+        <v>280</v>
+      </c>
+      <c r="D68" s="112"/>
+      <c r="E68" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="105" t="s">
+        <v>281</v>
+      </c>
+      <c r="G68" s="105"/>
+      <c r="H68" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="125"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="102">
+        <v>36</v>
+      </c>
+      <c r="C69" s="112" t="s">
+        <v>282</v>
+      </c>
+      <c r="D69" s="112"/>
+      <c r="E69" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="G69" s="105"/>
+      <c r="H69" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="125"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="102">
+        <v>37</v>
+      </c>
+      <c r="C70" s="112" t="s">
+        <v>284</v>
+      </c>
+      <c r="D70" s="112"/>
+      <c r="E70" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="G70" s="105"/>
+      <c r="H70" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="125"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="102">
+        <v>38</v>
+      </c>
+      <c r="C71" s="112" t="s">
+        <v>286</v>
+      </c>
+      <c r="D71" s="112"/>
+      <c r="E71" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="105" t="s">
+        <v>287</v>
+      </c>
+      <c r="G71" s="105"/>
+      <c r="H71" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="125"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="102">
+        <v>39</v>
+      </c>
+      <c r="C72" s="112" t="s">
+        <v>288</v>
+      </c>
+      <c r="D72" s="112"/>
+      <c r="E72" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="105" t="s">
+        <v>289</v>
+      </c>
+      <c r="G72" s="105"/>
+      <c r="H72" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="125"/>
+    </row>
+    <row r="73" ht="15.15" spans="2:9">
+      <c r="B73" s="107">
+        <v>40</v>
+      </c>
+      <c r="C73" s="138" t="s">
+        <v>290</v>
+      </c>
+      <c r="D73" s="138"/>
+      <c r="E73" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="110" t="s">
+        <v>291</v>
+      </c>
+      <c r="G73" s="110"/>
+      <c r="H73" s="111" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="208">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="B31:I32"/>
+    <mergeCell ref="L2:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:S35"/>
@@ -4442,7 +7209,7 @@
     <row r="2" ht="15.15"/>
     <row r="3" spans="2:19">
       <c r="B3" s="73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="74"/>
       <c r="D3" s="74"/>
@@ -4452,7 +7219,7 @@
       <c r="H3" s="74"/>
       <c r="I3" s="78"/>
       <c r="L3" s="73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M3" s="74"/>
       <c r="N3" s="74"/>
@@ -4482,39 +7249,39 @@
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="11" t="s">
-        <v>148</v>
+        <v>292</v>
       </c>
       <c r="I5" s="34"/>
       <c r="L5" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="11" t="s">
-        <v>149</v>
+        <v>293</v>
       </c>
       <c r="S5" s="34"/>
     </row>
@@ -4523,32 +7290,32 @@
         <v>1</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>150</v>
+        <v>294</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>151</v>
+        <v>295</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="77" t="s">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="I6" s="80"/>
       <c r="L6" s="43">
         <v>1</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>153</v>
+        <v>297</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P6" s="81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="88"/>
       <c r="R6" s="47">
@@ -4561,29 +7328,29 @@
         <v>2</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>155</v>
+        <v>299</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="77" t="s">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="I7" s="80"/>
       <c r="L7" s="43">
         <v>2</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P7" s="82"/>
       <c r="Q7" s="89"/>
@@ -4597,29 +7364,29 @@
         <v>3</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>157</v>
+        <v>301</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>158</v>
+        <v>302</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="77" t="s">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="I8" s="80"/>
       <c r="L8" s="43">
         <v>3</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>159</v>
+        <v>303</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P8" s="82"/>
       <c r="Q8" s="89"/>
@@ -4633,29 +7400,29 @@
         <v>4</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="G9" s="46"/>
       <c r="H9" s="77" t="s">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="I9" s="80"/>
       <c r="L9" s="43">
         <v>4</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>162</v>
+        <v>306</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P9" s="82"/>
       <c r="Q9" s="89"/>
@@ -4669,29 +7436,29 @@
         <v>5</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>163</v>
+        <v>307</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>164</v>
+        <v>308</v>
       </c>
       <c r="G10" s="46"/>
       <c r="H10" s="77" t="s">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="I10" s="80"/>
       <c r="L10" s="43">
         <v>5</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>165</v>
+        <v>309</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P10" s="82"/>
       <c r="Q10" s="89"/>
@@ -4715,11 +7482,11 @@
         <v>6</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>166</v>
+        <v>310</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P11" s="82"/>
       <c r="Q11" s="89"/>
@@ -4743,11 +7510,11 @@
         <v>7</v>
       </c>
       <c r="M12" s="83" t="s">
-        <v>167</v>
+        <v>311</v>
       </c>
       <c r="N12" s="83"/>
       <c r="O12" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P12" s="82"/>
       <c r="Q12" s="89"/>
@@ -4771,11 +7538,11 @@
         <v>8</v>
       </c>
       <c r="M13" s="83" t="s">
-        <v>168</v>
+        <v>312</v>
       </c>
       <c r="N13" s="83"/>
       <c r="O13" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P13" s="82"/>
       <c r="Q13" s="89"/>
@@ -4799,11 +7566,11 @@
         <v>9</v>
       </c>
       <c r="M14" s="83" t="s">
-        <v>169</v>
+        <v>313</v>
       </c>
       <c r="N14" s="83"/>
       <c r="O14" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P14" s="82"/>
       <c r="Q14" s="89"/>
@@ -4827,11 +7594,11 @@
         <v>10</v>
       </c>
       <c r="M15" s="83" t="s">
-        <v>170</v>
+        <v>314</v>
       </c>
       <c r="N15" s="83"/>
       <c r="O15" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P15" s="82"/>
       <c r="Q15" s="89"/>
@@ -4855,11 +7622,11 @@
         <v>11</v>
       </c>
       <c r="M16" s="83" t="s">
-        <v>171</v>
+        <v>315</v>
       </c>
       <c r="N16" s="83"/>
       <c r="O16" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P16" s="82"/>
       <c r="Q16" s="89"/>
@@ -4873,11 +7640,11 @@
         <v>12</v>
       </c>
       <c r="M17" s="83" t="s">
-        <v>172</v>
+        <v>316</v>
       </c>
       <c r="N17" s="83"/>
       <c r="O17" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P17" s="82"/>
       <c r="Q17" s="89"/>
@@ -4891,11 +7658,11 @@
         <v>13</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>173</v>
+        <v>317</v>
       </c>
       <c r="N18" s="23"/>
       <c r="O18" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P18" s="82"/>
       <c r="Q18" s="89"/>
@@ -4909,11 +7676,11 @@
         <v>14</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>174</v>
+        <v>318</v>
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P19" s="82"/>
       <c r="Q19" s="89"/>
@@ -4927,11 +7694,11 @@
         <v>15</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="N20" s="23"/>
       <c r="O20" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P20" s="82"/>
       <c r="Q20" s="89"/>
@@ -4945,11 +7712,11 @@
         <v>16</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="N21" s="23"/>
       <c r="O21" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P21" s="82"/>
       <c r="Q21" s="89"/>
@@ -4963,11 +7730,11 @@
         <v>17</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>177</v>
+        <v>321</v>
       </c>
       <c r="N22" s="23"/>
       <c r="O22" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P22" s="82"/>
       <c r="Q22" s="89"/>
@@ -4981,11 +7748,11 @@
         <v>18</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="N23" s="23"/>
       <c r="O23" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P23" s="82"/>
       <c r="Q23" s="89"/>
@@ -4999,11 +7766,11 @@
         <v>19</v>
       </c>
       <c r="M24" s="84" t="s">
-        <v>179</v>
+        <v>323</v>
       </c>
       <c r="N24" s="84"/>
       <c r="O24" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P24" s="82"/>
       <c r="Q24" s="89"/>
@@ -5017,11 +7784,11 @@
         <v>20</v>
       </c>
       <c r="M25" s="84" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="N25" s="84"/>
       <c r="O25" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P25" s="82"/>
       <c r="Q25" s="89"/>
@@ -5035,11 +7802,11 @@
         <v>21</v>
       </c>
       <c r="M26" s="84" t="s">
-        <v>181</v>
+        <v>325</v>
       </c>
       <c r="N26" s="84"/>
       <c r="O26" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P26" s="82"/>
       <c r="Q26" s="89"/>
@@ -5053,11 +7820,11 @@
         <v>22</v>
       </c>
       <c r="M27" s="84" t="s">
-        <v>182</v>
+        <v>326</v>
       </c>
       <c r="N27" s="84"/>
       <c r="O27" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P27" s="82"/>
       <c r="Q27" s="89"/>
@@ -5071,11 +7838,11 @@
         <v>23</v>
       </c>
       <c r="M28" s="84" t="s">
-        <v>183</v>
+        <v>327</v>
       </c>
       <c r="N28" s="84"/>
       <c r="O28" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P28" s="82"/>
       <c r="Q28" s="89"/>
@@ -5089,11 +7856,11 @@
         <v>24</v>
       </c>
       <c r="M29" s="84" t="s">
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="N29" s="84"/>
       <c r="O29" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P29" s="82"/>
       <c r="Q29" s="89"/>
@@ -5107,11 +7874,11 @@
         <v>25</v>
       </c>
       <c r="M30" s="85" t="s">
-        <v>185</v>
+        <v>329</v>
       </c>
       <c r="N30" s="85"/>
       <c r="O30" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P30" s="82"/>
       <c r="Q30" s="89"/>
@@ -5125,11 +7892,11 @@
         <v>26</v>
       </c>
       <c r="M31" s="85" t="s">
-        <v>186</v>
+        <v>330</v>
       </c>
       <c r="N31" s="85"/>
       <c r="O31" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P31" s="82"/>
       <c r="Q31" s="89"/>
@@ -5143,11 +7910,11 @@
         <v>27</v>
       </c>
       <c r="M32" s="85" t="s">
-        <v>187</v>
+        <v>331</v>
       </c>
       <c r="N32" s="85"/>
       <c r="O32" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P32" s="82"/>
       <c r="Q32" s="89"/>
@@ -5161,11 +7928,11 @@
         <v>28</v>
       </c>
       <c r="M33" s="85" t="s">
-        <v>188</v>
+        <v>332</v>
       </c>
       <c r="N33" s="85"/>
       <c r="O33" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P33" s="82"/>
       <c r="Q33" s="89"/>
@@ -5179,11 +7946,11 @@
         <v>29</v>
       </c>
       <c r="M34" s="85" t="s">
-        <v>189</v>
+        <v>333</v>
       </c>
       <c r="N34" s="85"/>
       <c r="O34" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P34" s="82"/>
       <c r="Q34" s="89"/>
@@ -5197,11 +7964,11 @@
         <v>30</v>
       </c>
       <c r="M35" s="86" t="s">
-        <v>190</v>
+        <v>334</v>
       </c>
       <c r="N35" s="86"/>
       <c r="O35" s="50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P35" s="87"/>
       <c r="Q35" s="90"/>
@@ -5321,13 +8088,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:S36"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5338,7 +8105,7 @@
     <row r="2" ht="15.15"/>
     <row r="3" spans="2:19">
       <c r="B3" s="39" t="s">
-        <v>191</v>
+        <v>335</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -5348,7 +8115,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="57"/>
       <c r="L3" s="58" t="s">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="M3" s="59"/>
       <c r="N3" s="59"/>
@@ -5378,39 +8145,39 @@
     </row>
     <row r="5" spans="2:19">
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" s="34"/>
       <c r="L5" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S5" s="34"/>
     </row>
@@ -5419,36 +8186,36 @@
         <v>1</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>193</v>
+        <v>337</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>194</v>
+        <v>338</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="47" t="s">
-        <v>195</v>
+        <v>339</v>
       </c>
       <c r="I6" s="63"/>
       <c r="L6" s="43">
         <v>1</v>
       </c>
       <c r="M6" s="44" t="s">
-        <v>196</v>
+        <v>340</v>
       </c>
       <c r="N6" s="44"/>
       <c r="O6" s="45" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="P6" s="46" t="s">
-        <v>197</v>
+        <v>341</v>
       </c>
       <c r="Q6" s="46"/>
       <c r="R6" s="47" t="s">
-        <v>198</v>
+        <v>342</v>
       </c>
       <c r="S6" s="63"/>
     </row>
@@ -5457,36 +8224,36 @@
         <v>2</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>199</v>
+        <v>343</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>200</v>
+        <v>344</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="47" t="s">
-        <v>201</v>
+        <v>345</v>
       </c>
       <c r="I7" s="63"/>
       <c r="L7" s="43">
         <v>2</v>
       </c>
       <c r="M7" s="44" t="s">
-        <v>202</v>
+        <v>346</v>
       </c>
       <c r="N7" s="44"/>
       <c r="O7" s="45" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="P7" s="46" t="s">
-        <v>203</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="46"/>
       <c r="R7" s="47" t="s">
-        <v>204</v>
+        <v>348</v>
       </c>
       <c r="S7" s="63"/>
     </row>
@@ -5495,36 +8262,36 @@
         <v>3</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>205</v>
+        <v>349</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>206</v>
+        <v>350</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="47" t="s">
-        <v>207</v>
+        <v>93</v>
       </c>
       <c r="I8" s="63"/>
       <c r="L8" s="43">
         <v>3</v>
       </c>
       <c r="M8" s="44" t="s">
-        <v>208</v>
+        <v>351</v>
       </c>
       <c r="N8" s="44"/>
       <c r="O8" s="45" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="P8" s="46" t="s">
-        <v>209</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="46"/>
       <c r="R8" s="47" t="s">
-        <v>210</v>
+        <v>353</v>
       </c>
       <c r="S8" s="63"/>
     </row>
@@ -5533,36 +8300,36 @@
         <v>4</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>211</v>
+        <v>354</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>212</v>
+        <v>355</v>
       </c>
       <c r="G9" s="46"/>
       <c r="H9" s="47" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="I9" s="63"/>
       <c r="L9" s="43">
         <v>4</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>214</v>
+        <v>356</v>
       </c>
       <c r="N9" s="44"/>
       <c r="O9" s="45" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="P9" s="46" t="s">
-        <v>215</v>
+        <v>357</v>
       </c>
       <c r="Q9" s="46"/>
       <c r="R9" s="47" t="s">
-        <v>216</v>
+        <v>358</v>
       </c>
       <c r="S9" s="63"/>
     </row>
@@ -5571,36 +8338,36 @@
         <v>5</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>217</v>
+        <v>359</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>218</v>
+        <v>360</v>
       </c>
       <c r="G10" s="46"/>
       <c r="H10" s="47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I10" s="63"/>
       <c r="L10" s="43">
         <v>5</v>
       </c>
       <c r="M10" s="44" t="s">
-        <v>219</v>
+        <v>361</v>
       </c>
       <c r="N10" s="44"/>
       <c r="O10" s="45" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="P10" s="46" t="s">
-        <v>220</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="46"/>
       <c r="R10" s="47" t="s">
-        <v>221</v>
+        <v>363</v>
       </c>
       <c r="S10" s="63"/>
     </row>
@@ -5609,36 +8376,36 @@
         <v>6</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>222</v>
+        <v>364</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>223</v>
+        <v>365</v>
       </c>
       <c r="G11" s="46"/>
       <c r="H11" s="47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I11" s="63"/>
       <c r="L11" s="43">
         <v>6</v>
       </c>
       <c r="M11" s="44" t="s">
-        <v>224</v>
+        <v>366</v>
       </c>
       <c r="N11" s="44"/>
       <c r="O11" s="45" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="P11" s="46" t="s">
-        <v>225</v>
+        <v>367</v>
       </c>
       <c r="Q11" s="46"/>
       <c r="R11" s="47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S11" s="63"/>
     </row>
@@ -5647,36 +8414,36 @@
         <v>7</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>226</v>
+        <v>368</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>227</v>
+        <v>369</v>
       </c>
       <c r="G12" s="46"/>
       <c r="H12" s="47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I12" s="63"/>
       <c r="L12" s="43">
         <v>7</v>
       </c>
       <c r="M12" s="44" t="s">
-        <v>228</v>
+        <v>370</v>
       </c>
       <c r="N12" s="44"/>
       <c r="O12" s="45" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="P12" s="46" t="s">
-        <v>229</v>
+        <v>371</v>
       </c>
       <c r="Q12" s="46"/>
       <c r="R12" s="47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S12" s="63"/>
     </row>
@@ -5685,18 +8452,18 @@
         <v>8</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>230</v>
+        <v>372</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>231</v>
+        <v>373</v>
       </c>
       <c r="G13" s="46"/>
       <c r="H13" s="47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I13" s="63"/>
       <c r="L13" s="48"/>
@@ -5706,7 +8473,7 @@
       <c r="P13" s="51"/>
       <c r="Q13" s="51"/>
       <c r="R13" s="52" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S13" s="64"/>
     </row>
@@ -5715,18 +8482,18 @@
         <v>9</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>232</v>
+        <v>374</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>233</v>
+        <v>375</v>
       </c>
       <c r="G14" s="46"/>
       <c r="H14" s="47" t="s">
-        <v>234</v>
+        <v>376</v>
       </c>
       <c r="I14" s="63"/>
     </row>
@@ -5735,18 +8502,18 @@
         <v>10</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>235</v>
+        <v>377</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>236</v>
+        <v>378</v>
       </c>
       <c r="G15" s="46"/>
       <c r="H15" s="47" t="s">
-        <v>237</v>
+        <v>379</v>
       </c>
       <c r="I15" s="63"/>
     </row>
@@ -5755,25 +8522,25 @@
         <v>11</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>238</v>
+        <v>380</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>239</v>
+        <v>381</v>
       </c>
       <c r="G16" s="51"/>
       <c r="H16" s="52" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I16" s="64"/>
     </row>
     <row r="19" ht="15.15"/>
     <row r="20" spans="2:19">
       <c r="B20" s="53" t="s">
-        <v>240</v>
+        <v>382</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="54"/>
@@ -5783,7 +8550,7 @@
       <c r="H20" s="54"/>
       <c r="I20" s="65"/>
       <c r="L20" s="66" t="s">
-        <v>241</v>
+        <v>383</v>
       </c>
       <c r="M20" s="67"/>
       <c r="N20" s="67"/>
@@ -5813,39 +8580,39 @@
     </row>
     <row r="22" spans="2:19">
       <c r="B22" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I22" s="34"/>
       <c r="L22" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S22" s="34"/>
     </row>
@@ -5854,36 +8621,36 @@
         <v>1</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>242</v>
+        <v>384</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>243</v>
+        <v>385</v>
       </c>
       <c r="G23" s="46"/>
       <c r="H23" s="47" t="s">
-        <v>244</v>
+        <v>386</v>
       </c>
       <c r="I23" s="63"/>
       <c r="L23" s="43">
         <v>1</v>
       </c>
       <c r="M23" s="44" t="s">
-        <v>245</v>
+        <v>387</v>
       </c>
       <c r="N23" s="44"/>
       <c r="O23" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P23" s="46" t="s">
-        <v>246</v>
+        <v>388</v>
       </c>
       <c r="Q23" s="46"/>
       <c r="R23" s="47" t="s">
-        <v>247</v>
+        <v>389</v>
       </c>
       <c r="S23" s="63"/>
     </row>
@@ -5892,36 +8659,36 @@
         <v>2</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>248</v>
+        <v>390</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>249</v>
+        <v>391</v>
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="47" t="s">
-        <v>150</v>
+        <v>294</v>
       </c>
       <c r="I24" s="63"/>
       <c r="L24" s="43">
         <v>2</v>
       </c>
       <c r="M24" s="44" t="s">
-        <v>250</v>
+        <v>392</v>
       </c>
       <c r="N24" s="44"/>
       <c r="O24" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P24" s="46" t="s">
-        <v>251</v>
+        <v>393</v>
       </c>
       <c r="Q24" s="46"/>
       <c r="R24" s="47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S24" s="63"/>
     </row>
@@ -5930,18 +8697,18 @@
         <v>3</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>252</v>
+        <v>394</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>253</v>
+        <v>395</v>
       </c>
       <c r="G25" s="46"/>
       <c r="H25" s="47" t="s">
-        <v>254</v>
+        <v>396</v>
       </c>
       <c r="I25" s="63"/>
       <c r="L25" s="43"/>
@@ -5958,18 +8725,18 @@
         <v>4</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>255</v>
+        <v>397</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>256</v>
+        <v>398</v>
       </c>
       <c r="G26" s="46"/>
       <c r="H26" s="47" t="s">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c r="I26" s="63"/>
       <c r="L26" s="48"/>
@@ -5986,18 +8753,18 @@
         <v>5</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>257</v>
+        <v>399</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>258</v>
+        <v>400</v>
       </c>
       <c r="G27" s="46"/>
       <c r="H27" s="47" t="s">
-        <v>259</v>
+        <v>401</v>
       </c>
       <c r="I27" s="63"/>
     </row>
@@ -6006,18 +8773,18 @@
         <v>6</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>260</v>
+        <v>402</v>
       </c>
       <c r="D28" s="44"/>
       <c r="E28" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>261</v>
+        <v>403</v>
       </c>
       <c r="G28" s="46"/>
       <c r="H28" s="47" t="s">
-        <v>157</v>
+        <v>301</v>
       </c>
       <c r="I28" s="63"/>
     </row>
@@ -6026,18 +8793,18 @@
         <v>7</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>262</v>
+        <v>404</v>
       </c>
       <c r="D29" s="44"/>
       <c r="E29" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>263</v>
+        <v>405</v>
       </c>
       <c r="G29" s="46"/>
       <c r="H29" s="47" t="s">
-        <v>264</v>
+        <v>406</v>
       </c>
       <c r="I29" s="63"/>
     </row>
@@ -6046,18 +8813,18 @@
         <v>8</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>265</v>
+        <v>407</v>
       </c>
       <c r="D30" s="44"/>
       <c r="E30" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>266</v>
+        <v>408</v>
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="47" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="I30" s="63"/>
     </row>
@@ -6066,18 +8833,18 @@
         <v>9</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>267</v>
+        <v>409</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>268</v>
+        <v>410</v>
       </c>
       <c r="G31" s="46"/>
       <c r="H31" s="47" t="s">
-        <v>269</v>
+        <v>411</v>
       </c>
       <c r="I31" s="63"/>
     </row>
@@ -6086,18 +8853,18 @@
         <v>10</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>270</v>
+        <v>412</v>
       </c>
       <c r="D32" s="44"/>
       <c r="E32" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>271</v>
+        <v>413</v>
       </c>
       <c r="G32" s="46"/>
       <c r="H32" s="47" t="s">
-        <v>163</v>
+        <v>307</v>
       </c>
       <c r="I32" s="63"/>
     </row>
@@ -6106,18 +8873,18 @@
         <v>11</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>272</v>
+        <v>414</v>
       </c>
       <c r="D33" s="44"/>
       <c r="E33" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>273</v>
+        <v>415</v>
       </c>
       <c r="G33" s="46"/>
       <c r="H33" s="47" t="s">
-        <v>274</v>
+        <v>416</v>
       </c>
       <c r="I33" s="63"/>
     </row>
@@ -6126,18 +8893,18 @@
         <v>12</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>275</v>
+        <v>417</v>
       </c>
       <c r="D34" s="44"/>
       <c r="E34" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>276</v>
+        <v>418</v>
       </c>
       <c r="G34" s="46"/>
       <c r="H34" s="47" t="s">
-        <v>277</v>
+        <v>419</v>
       </c>
       <c r="I34" s="63"/>
     </row>
@@ -6146,18 +8913,18 @@
         <v>13</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>278</v>
+        <v>420</v>
       </c>
       <c r="D35" s="44"/>
       <c r="E35" s="45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F35" s="46" t="s">
-        <v>279</v>
+        <v>421</v>
       </c>
       <c r="G35" s="46"/>
       <c r="H35" s="47" t="s">
-        <v>274</v>
+        <v>416</v>
       </c>
       <c r="I35" s="63"/>
     </row>
@@ -6166,18 +8933,18 @@
         <v>14</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>280</v>
+        <v>422</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>281</v>
+        <v>423</v>
       </c>
       <c r="G36" s="51"/>
       <c r="H36" s="52" t="s">
-        <v>277</v>
+        <v>419</v>
       </c>
       <c r="I36" s="64"/>
     </row>
@@ -6317,13 +9084,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6334,7 +9101,7 @@
     <row r="1" ht="15.15"/>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>282</v>
+        <v>424</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -6356,21 +9123,21 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="34"/>
     </row>
@@ -6379,18 +9146,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>244</v>
+        <v>386</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="16" t="s">
-        <v>284</v>
+        <v>426</v>
       </c>
       <c r="I5" s="35"/>
     </row>
@@ -6399,18 +9166,18 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>150</v>
+        <v>294</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>285</v>
+        <v>427</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="16" t="s">
-        <v>286</v>
+        <v>428</v>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -6419,18 +9186,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>254</v>
+        <v>396</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="16" t="s">
-        <v>284</v>
+        <v>426</v>
       </c>
       <c r="I7" s="35"/>
     </row>
@@ -6439,18 +9206,18 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>285</v>
+        <v>427</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="16" t="s">
-        <v>286</v>
+        <v>428</v>
       </c>
       <c r="I8" s="35"/>
     </row>
@@ -6459,18 +9226,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>259</v>
+        <v>401</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="16" t="s">
-        <v>284</v>
+        <v>426</v>
       </c>
       <c r="I9" s="35"/>
     </row>
@@ -6479,18 +9246,18 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>157</v>
+        <v>301</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>285</v>
+        <v>427</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="16" t="s">
-        <v>286</v>
+        <v>428</v>
       </c>
       <c r="I10" s="35"/>
     </row>
@@ -6499,18 +9266,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>264</v>
+        <v>406</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="21" t="s">
-        <v>284</v>
+        <v>426</v>
       </c>
       <c r="I11" s="36"/>
     </row>
@@ -6519,18 +9286,18 @@
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>285</v>
+        <v>427</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="21" t="s">
-        <v>286</v>
+        <v>428</v>
       </c>
       <c r="I12" s="36"/>
     </row>
@@ -6539,18 +9306,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>269</v>
+        <v>411</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>283</v>
+        <v>425</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="26" t="s">
-        <v>284</v>
+        <v>426</v>
       </c>
       <c r="I13" s="37"/>
     </row>
@@ -6559,18 +9326,18 @@
         <v>10</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>163</v>
+        <v>307</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>285</v>
+        <v>427</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="31" t="s">
-        <v>286</v>
+        <v>428</v>
       </c>
       <c r="I14" s="38"/>
     </row>

--- a/Document/阀冷系统_迪文屏幕_RAM变量分配表.xlsx
+++ b/Document/阀冷系统_迪文屏幕_RAM变量分配表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="435">
   <si>
     <t>红色字体标注项为后续新加！</t>
   </si>
@@ -607,6 +607,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="隶书"/>
+        <charset val="134"/>
+      </rPr>
       <t>系统强制结束按钮地址(</t>
     </r>
     <r>
@@ -674,10 +680,43 @@
     <t>其他</t>
   </si>
   <si>
-    <t>开关类操作地址（急停、风扇、加水、排液）</t>
-  </si>
-  <si>
-    <t>16bit （下发0xF0、0xF1、0xF2、0xF3）</t>
+    <t>开关类操作地址（急停、风扇、加水、排液、压力、液位）</t>
+  </si>
+  <si>
+    <t>16bit （下发0xF0、0xF1、0xF2、0xF3、0xF4、0xF5）</t>
+  </si>
+  <si>
+    <r>
+      <t>RTC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更新</t>
+    </r>
+  </si>
+  <si>
+    <t>网络时间更新时间</t>
+  </si>
+  <si>
+    <t>0x5000</t>
+  </si>
+  <si>
+    <t>16bit（下发0xF1）</t>
+  </si>
+  <si>
+    <t>屏幕时间更新到MCU</t>
+  </si>
+  <si>
+    <t>0x5001-0x5004</t>
+  </si>
+  <si>
+    <t>4个16bit</t>
   </si>
   <si>
     <t>传感器上/下限设置</t>
@@ -699,9 +738,6 @@
   </si>
   <si>
     <t>超上/下限图标地址</t>
-  </si>
-  <si>
-    <t>0x5000</t>
   </si>
   <si>
     <t>（bit）2Byte</t>
@@ -1582,7 +1618,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1848,6 +1884,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="47">
@@ -3519,16 +3562,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U86"/>
+  <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:F38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B81" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93:I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="34.8703703703704" customWidth="1"/>
-    <col min="11" max="11" width="28.9722222222222" customWidth="1"/>
+    <col min="6" max="6" width="43.3703703703704" customWidth="1"/>
+    <col min="11" max="11" width="36.712962962963" customWidth="1"/>
     <col min="15" max="15" width="28.6944444444444" customWidth="1"/>
     <col min="21" max="21" width="16.2314814814815" customWidth="1"/>
   </cols>
@@ -4189,7 +4232,7 @@
       </c>
       <c r="U21" s="125"/>
     </row>
-    <row r="22" spans="14:21">
+    <row r="22" ht="15.15" spans="14:21">
       <c r="N22" s="102">
         <v>17</v>
       </c>
@@ -4209,7 +4252,7 @@
       </c>
       <c r="U22" s="125"/>
     </row>
-    <row r="23" spans="4:21">
+    <row r="23" ht="15.15" spans="4:21">
       <c r="D23" s="1" t="s">
         <v>74</v>
       </c>
@@ -5265,8 +5308,174 @@
       <c r="J86" s="111"/>
       <c r="K86" s="131"/>
     </row>
+    <row r="89" spans="4:11">
+      <c r="D89" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="32"/>
+    </row>
+    <row r="90" spans="4:11">
+      <c r="D90" s="3"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="33"/>
+    </row>
+    <row r="91" spans="4:11">
+      <c r="D91" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I91" s="10"/>
+      <c r="J91" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K91" s="34"/>
+    </row>
+    <row r="92" spans="4:11">
+      <c r="D92" s="43">
+        <v>1</v>
+      </c>
+      <c r="E92" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F92" s="44"/>
+      <c r="G92" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="I92" s="46"/>
+      <c r="J92" s="163" t="s">
+        <v>156</v>
+      </c>
+      <c r="K92" s="164"/>
+    </row>
+    <row r="93" spans="4:11">
+      <c r="D93" s="43">
+        <v>2</v>
+      </c>
+      <c r="E93" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="F93" s="44"/>
+      <c r="G93" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="I93" s="46"/>
+      <c r="J93" s="163" t="s">
+        <v>159</v>
+      </c>
+      <c r="K93" s="164"/>
+    </row>
+    <row r="94" spans="4:11">
+      <c r="D94" s="43">
+        <v>3</v>
+      </c>
+      <c r="E94" s="44"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="46"/>
+      <c r="I94" s="46"/>
+      <c r="J94" s="163"/>
+      <c r="K94" s="164"/>
+    </row>
+    <row r="95" spans="4:11">
+      <c r="D95" s="43">
+        <v>4</v>
+      </c>
+      <c r="E95" s="103"/>
+      <c r="F95" s="103"/>
+      <c r="G95" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" s="105"/>
+      <c r="I95" s="105"/>
+      <c r="J95" s="106"/>
+      <c r="K95" s="125"/>
+    </row>
+    <row r="96" spans="4:11">
+      <c r="D96" s="43">
+        <v>5</v>
+      </c>
+      <c r="E96" s="103"/>
+      <c r="F96" s="103"/>
+      <c r="G96" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="105"/>
+      <c r="I96" s="105"/>
+      <c r="J96" s="106"/>
+      <c r="K96" s="125"/>
+    </row>
+    <row r="97" spans="4:11">
+      <c r="D97" s="43">
+        <v>6</v>
+      </c>
+      <c r="E97" s="103"/>
+      <c r="F97" s="103"/>
+      <c r="G97" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" s="105"/>
+      <c r="I97" s="105"/>
+      <c r="J97" s="106"/>
+      <c r="K97" s="125"/>
+    </row>
+    <row r="98" spans="4:11">
+      <c r="D98" s="43">
+        <v>7</v>
+      </c>
+      <c r="E98" s="103"/>
+      <c r="F98" s="103"/>
+      <c r="G98" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="105"/>
+      <c r="I98" s="105"/>
+      <c r="J98" s="106"/>
+      <c r="K98" s="125"/>
+    </row>
+    <row r="99" ht="15.15" spans="4:11">
+      <c r="D99" s="48">
+        <v>8</v>
+      </c>
+      <c r="E99" s="108"/>
+      <c r="F99" s="108"/>
+      <c r="G99" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" s="110"/>
+      <c r="I99" s="110"/>
+      <c r="J99" s="111"/>
+      <c r="K99" s="131"/>
+    </row>
   </sheetData>
-  <mergeCells count="253">
+  <mergeCells count="281">
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
@@ -5513,6 +5722,33 @@
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="H86:I86"/>
     <mergeCell ref="J86:K86"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J99:K99"/>
     <mergeCell ref="D3:K4"/>
     <mergeCell ref="D23:K24"/>
     <mergeCell ref="N3:U4"/>
@@ -5520,6 +5756,7 @@
     <mergeCell ref="D49:K50"/>
     <mergeCell ref="D63:K64"/>
     <mergeCell ref="D76:K77"/>
+    <mergeCell ref="D89:K90"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E7:F7" location="子界面!A1" display="系统检验结果"/>
@@ -5536,8 +5773,8 @@
   <sheetPr/>
   <dimension ref="B1:Q73"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D28"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -5550,7 +5787,7 @@
     <row r="1" ht="15.15"/>
     <row r="2" spans="2:17">
       <c r="B2" s="91" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C2" s="92"/>
       <c r="D2" s="92"/>
@@ -5560,7 +5797,7 @@
       <c r="H2" s="92"/>
       <c r="I2" s="113"/>
       <c r="L2" s="114" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="M2" s="115"/>
       <c r="N2" s="115"/>
@@ -5615,7 +5852,7 @@
       </c>
       <c r="P4" s="124"/>
       <c r="Q4" s="134" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="2:17">
@@ -5623,33 +5860,33 @@
         <v>1</v>
       </c>
       <c r="C5" s="103" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D5" s="103"/>
       <c r="E5" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F5" s="105" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G5" s="105"/>
       <c r="H5" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I5" s="125"/>
       <c r="L5" s="126" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M5" s="127"/>
       <c r="N5" s="127" t="s">
         <v>9</v>
       </c>
       <c r="O5" s="127" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P5" s="127"/>
       <c r="Q5" s="135" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="2:17">
@@ -5657,33 +5894,33 @@
         <v>2</v>
       </c>
       <c r="C6" s="103" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D6" s="103"/>
       <c r="E6" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I6" s="125"/>
       <c r="L6" s="48" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M6" s="50"/>
       <c r="N6" s="128" t="s">
         <v>9</v>
       </c>
       <c r="O6" s="128" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P6" s="128"/>
       <c r="Q6" s="136" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" ht="15.15" spans="2:17">
@@ -5691,18 +5928,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="103" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D7" s="103"/>
       <c r="E7" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F7" s="105" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G7" s="105"/>
       <c r="H7" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I7" s="125"/>
       <c r="L7" s="129"/>
@@ -5717,18 +5954,18 @@
         <v>4</v>
       </c>
       <c r="C8" s="103" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D8" s="103"/>
       <c r="E8" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F8" s="105" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G8" s="105"/>
       <c r="H8" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I8" s="125"/>
     </row>
@@ -5737,18 +5974,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="103" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D9" s="103"/>
       <c r="E9" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G9" s="105"/>
       <c r="H9" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I9" s="125"/>
     </row>
@@ -5757,18 +5994,18 @@
         <v>6</v>
       </c>
       <c r="C10" s="103" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D10" s="103"/>
       <c r="E10" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F10" s="105" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G10" s="105"/>
       <c r="H10" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I10" s="125"/>
     </row>
@@ -5777,18 +6014,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="103" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D11" s="103"/>
       <c r="E11" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F11" s="105" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G11" s="105"/>
       <c r="H11" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I11" s="125"/>
     </row>
@@ -5797,18 +6034,18 @@
         <v>8</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D12" s="103"/>
       <c r="E12" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F12" s="105" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G12" s="105"/>
       <c r="H12" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I12" s="125"/>
     </row>
@@ -5817,18 +6054,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="103" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D13" s="103"/>
       <c r="E13" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F13" s="105" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G13" s="105"/>
       <c r="H13" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I13" s="125"/>
     </row>
@@ -5837,18 +6074,18 @@
         <v>10</v>
       </c>
       <c r="C14" s="103" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D14" s="103"/>
       <c r="E14" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F14" s="105" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G14" s="105"/>
       <c r="H14" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I14" s="125"/>
     </row>
@@ -5857,18 +6094,18 @@
         <v>11</v>
       </c>
       <c r="C15" s="103" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D15" s="103"/>
       <c r="E15" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F15" s="105" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G15" s="105"/>
       <c r="H15" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I15" s="125"/>
     </row>
@@ -5877,18 +6114,18 @@
         <v>12</v>
       </c>
       <c r="C16" s="103" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D16" s="103"/>
       <c r="E16" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F16" s="105" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G16" s="105"/>
       <c r="H16" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I16" s="125"/>
     </row>
@@ -5897,18 +6134,18 @@
         <v>13</v>
       </c>
       <c r="C17" s="103" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D17" s="103"/>
       <c r="E17" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F17" s="105" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G17" s="105"/>
       <c r="H17" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I17" s="125"/>
     </row>
@@ -5917,18 +6154,18 @@
         <v>14</v>
       </c>
       <c r="C18" s="103" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D18" s="103"/>
       <c r="E18" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F18" s="105" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G18" s="105"/>
       <c r="H18" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I18" s="125"/>
     </row>
@@ -5937,18 +6174,18 @@
         <v>15</v>
       </c>
       <c r="C19" s="103" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D19" s="103"/>
       <c r="E19" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="105" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G19" s="105"/>
       <c r="H19" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I19" s="125"/>
     </row>
@@ -5957,18 +6194,18 @@
         <v>16</v>
       </c>
       <c r="C20" s="103" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D20" s="103"/>
       <c r="E20" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F20" s="105" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G20" s="105"/>
       <c r="H20" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I20" s="125"/>
     </row>
@@ -5977,18 +6214,18 @@
         <v>17</v>
       </c>
       <c r="C21" s="103" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D21" s="103"/>
       <c r="E21" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F21" s="105" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G21" s="105"/>
       <c r="H21" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I21" s="125"/>
     </row>
@@ -5997,18 +6234,18 @@
         <v>18</v>
       </c>
       <c r="C22" s="103" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D22" s="103"/>
       <c r="E22" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F22" s="105" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G22" s="105"/>
       <c r="H22" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I22" s="125"/>
     </row>
@@ -6017,18 +6254,18 @@
         <v>19</v>
       </c>
       <c r="C23" s="103" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D23" s="103"/>
       <c r="E23" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F23" s="105" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G23" s="105"/>
       <c r="H23" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I23" s="125"/>
     </row>
@@ -6037,18 +6274,18 @@
         <v>20</v>
       </c>
       <c r="C24" s="103" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D24" s="103"/>
       <c r="E24" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F24" s="105" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G24" s="105"/>
       <c r="H24" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I24" s="125"/>
     </row>
@@ -6057,18 +6294,18 @@
         <v>21</v>
       </c>
       <c r="C25" s="103" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D25" s="103"/>
       <c r="E25" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F25" s="105" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G25" s="105"/>
       <c r="H25" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I25" s="125"/>
     </row>
@@ -6077,18 +6314,18 @@
         <v>22</v>
       </c>
       <c r="C26" s="103" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D26" s="103"/>
       <c r="E26" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F26" s="105" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G26" s="105"/>
       <c r="H26" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I26" s="125"/>
     </row>
@@ -6097,45 +6334,45 @@
         <v>23</v>
       </c>
       <c r="C27" s="103" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D27" s="103"/>
       <c r="E27" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F27" s="105" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G27" s="105"/>
       <c r="H27" s="106" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I27" s="125"/>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" ht="15.15" spans="2:9">
       <c r="B28" s="107">
         <v>24</v>
       </c>
       <c r="C28" s="108" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D28" s="108"/>
       <c r="E28" s="109" t="s">
         <v>97</v>
       </c>
       <c r="F28" s="110" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G28" s="110"/>
       <c r="H28" s="111" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I28" s="131"/>
     </row>
     <row r="30" ht="15.15"/>
     <row r="31" spans="2:9">
       <c r="B31" s="91" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C31" s="92"/>
       <c r="D31" s="92"/>
@@ -6180,14 +6417,14 @@
         <v>1</v>
       </c>
       <c r="C34" s="112" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D34" s="112"/>
       <c r="E34" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="105" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G34" s="105"/>
       <c r="H34" s="106" t="s">
@@ -6200,14 +6437,14 @@
         <v>2</v>
       </c>
       <c r="C35" s="112" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D35" s="112"/>
       <c r="E35" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="105" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G35" s="105"/>
       <c r="H35" s="106" t="s">
@@ -6220,14 +6457,14 @@
         <v>3</v>
       </c>
       <c r="C36" s="112" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D36" s="112"/>
       <c r="E36" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="105" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G36" s="105"/>
       <c r="H36" s="106" t="s">
@@ -6240,14 +6477,14 @@
         <v>4</v>
       </c>
       <c r="C37" s="112" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D37" s="112"/>
       <c r="E37" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="105" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G37" s="105"/>
       <c r="H37" s="106" t="s">
@@ -6260,14 +6497,14 @@
         <v>5</v>
       </c>
       <c r="C38" s="112" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D38" s="112"/>
       <c r="E38" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="105" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G38" s="105"/>
       <c r="H38" s="106" t="s">
@@ -6280,14 +6517,14 @@
         <v>6</v>
       </c>
       <c r="C39" s="112" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D39" s="112"/>
       <c r="E39" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="105" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G39" s="105"/>
       <c r="H39" s="106" t="s">
@@ -6300,14 +6537,14 @@
         <v>7</v>
       </c>
       <c r="C40" s="112" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D40" s="112"/>
       <c r="E40" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="105" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G40" s="105"/>
       <c r="H40" s="106" t="s">
@@ -6320,14 +6557,14 @@
         <v>8</v>
       </c>
       <c r="C41" s="112" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D41" s="112"/>
       <c r="E41" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="105" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G41" s="105"/>
       <c r="H41" s="106" t="s">
@@ -6340,14 +6577,14 @@
         <v>9</v>
       </c>
       <c r="C42" s="112" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D42" s="112"/>
       <c r="E42" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="105" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G42" s="105"/>
       <c r="H42" s="106" t="s">
@@ -6360,14 +6597,14 @@
         <v>10</v>
       </c>
       <c r="C43" s="112" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D43" s="112"/>
       <c r="E43" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="105" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G43" s="105"/>
       <c r="H43" s="106" t="s">
@@ -6380,14 +6617,14 @@
         <v>11</v>
       </c>
       <c r="C44" s="112" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D44" s="112"/>
       <c r="E44" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="105" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G44" s="105"/>
       <c r="H44" s="106" t="s">
@@ -6400,14 +6637,14 @@
         <v>12</v>
       </c>
       <c r="C45" s="112" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D45" s="112"/>
       <c r="E45" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="105" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G45" s="105"/>
       <c r="H45" s="106" t="s">
@@ -6420,14 +6657,14 @@
         <v>13</v>
       </c>
       <c r="C46" s="112" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D46" s="112"/>
       <c r="E46" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="105" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G46" s="105"/>
       <c r="H46" s="106" t="s">
@@ -6440,14 +6677,14 @@
         <v>14</v>
       </c>
       <c r="C47" s="112" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D47" s="112"/>
       <c r="E47" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="105" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G47" s="105"/>
       <c r="H47" s="106" t="s">
@@ -6460,14 +6697,14 @@
         <v>15</v>
       </c>
       <c r="C48" s="112" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D48" s="112"/>
       <c r="E48" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="105" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G48" s="105"/>
       <c r="H48" s="106" t="s">
@@ -6480,14 +6717,14 @@
         <v>16</v>
       </c>
       <c r="C49" s="112" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D49" s="112"/>
       <c r="E49" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="105" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G49" s="105"/>
       <c r="H49" s="106" t="s">
@@ -6500,14 +6737,14 @@
         <v>17</v>
       </c>
       <c r="C50" s="112" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D50" s="112"/>
       <c r="E50" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="105" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G50" s="105"/>
       <c r="H50" s="106" t="s">
@@ -6520,14 +6757,14 @@
         <v>18</v>
       </c>
       <c r="C51" s="112" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D51" s="112"/>
       <c r="E51" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="105" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G51" s="105"/>
       <c r="H51" s="106" t="s">
@@ -6540,14 +6777,14 @@
         <v>19</v>
       </c>
       <c r="C52" s="112" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D52" s="112"/>
       <c r="E52" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="105" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="G52" s="105"/>
       <c r="H52" s="106" t="s">
@@ -6560,14 +6797,14 @@
         <v>20</v>
       </c>
       <c r="C53" s="112" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D53" s="112"/>
       <c r="E53" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="105" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G53" s="105"/>
       <c r="H53" s="106" t="s">
@@ -6580,14 +6817,14 @@
         <v>21</v>
       </c>
       <c r="C54" s="112" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D54" s="112"/>
       <c r="E54" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="105" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G54" s="105"/>
       <c r="H54" s="106" t="s">
@@ -6600,14 +6837,14 @@
         <v>22</v>
       </c>
       <c r="C55" s="112" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D55" s="112"/>
       <c r="E55" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="105" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G55" s="105"/>
       <c r="H55" s="106" t="s">
@@ -6620,14 +6857,14 @@
         <v>23</v>
       </c>
       <c r="C56" s="112" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D56" s="112"/>
       <c r="E56" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="105" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G56" s="105"/>
       <c r="H56" s="106" t="s">
@@ -6640,14 +6877,14 @@
         <v>24</v>
       </c>
       <c r="C57" s="112" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D57" s="112"/>
       <c r="E57" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="105" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G57" s="105"/>
       <c r="H57" s="106" t="s">
@@ -6660,14 +6897,14 @@
         <v>25</v>
       </c>
       <c r="C58" s="112" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D58" s="112"/>
       <c r="E58" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="105" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G58" s="105"/>
       <c r="H58" s="106" t="s">
@@ -6680,14 +6917,14 @@
         <v>26</v>
       </c>
       <c r="C59" s="112" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D59" s="112"/>
       <c r="E59" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="105" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G59" s="105"/>
       <c r="H59" s="106" t="s">
@@ -6700,14 +6937,14 @@
         <v>27</v>
       </c>
       <c r="C60" s="112" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D60" s="112"/>
       <c r="E60" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="105" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G60" s="105"/>
       <c r="H60" s="106" t="s">
@@ -6720,14 +6957,14 @@
         <v>28</v>
       </c>
       <c r="C61" s="112" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D61" s="112"/>
       <c r="E61" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="105" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G61" s="105"/>
       <c r="H61" s="106" t="s">
@@ -6740,14 +6977,14 @@
         <v>29</v>
       </c>
       <c r="C62" s="112" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D62" s="112"/>
       <c r="E62" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="105" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G62" s="105"/>
       <c r="H62" s="106" t="s">
@@ -6760,14 +6997,14 @@
         <v>30</v>
       </c>
       <c r="C63" s="112" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D63" s="112"/>
       <c r="E63" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="105" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G63" s="105"/>
       <c r="H63" s="106" t="s">
@@ -6780,14 +7017,14 @@
         <v>31</v>
       </c>
       <c r="C64" s="112" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D64" s="112"/>
       <c r="E64" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F64" s="105" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G64" s="105"/>
       <c r="H64" s="106" t="s">
@@ -6800,14 +7037,14 @@
         <v>32</v>
       </c>
       <c r="C65" s="112" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D65" s="112"/>
       <c r="E65" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="105" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G65" s="105"/>
       <c r="H65" s="106" t="s">
@@ -6820,14 +7057,14 @@
         <v>33</v>
       </c>
       <c r="C66" s="112" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D66" s="112"/>
       <c r="E66" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F66" s="105" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G66" s="105"/>
       <c r="H66" s="106" t="s">
@@ -6840,14 +7077,14 @@
         <v>34</v>
       </c>
       <c r="C67" s="112" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D67" s="112"/>
       <c r="E67" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="105" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G67" s="105"/>
       <c r="H67" s="106" t="s">
@@ -6860,14 +7097,14 @@
         <v>35</v>
       </c>
       <c r="C68" s="112" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D68" s="112"/>
       <c r="E68" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="105" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G68" s="105"/>
       <c r="H68" s="106" t="s">
@@ -6880,14 +7117,14 @@
         <v>36</v>
       </c>
       <c r="C69" s="112" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D69" s="112"/>
       <c r="E69" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F69" s="105" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G69" s="105"/>
       <c r="H69" s="106" t="s">
@@ -6900,14 +7137,14 @@
         <v>37</v>
       </c>
       <c r="C70" s="112" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D70" s="112"/>
       <c r="E70" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F70" s="105" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G70" s="105"/>
       <c r="H70" s="106" t="s">
@@ -6920,14 +7157,14 @@
         <v>38</v>
       </c>
       <c r="C71" s="112" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D71" s="112"/>
       <c r="E71" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="105" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G71" s="105"/>
       <c r="H71" s="106" t="s">
@@ -6940,14 +7177,14 @@
         <v>39</v>
       </c>
       <c r="C72" s="112" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D72" s="112"/>
       <c r="E72" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F72" s="105" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="G72" s="105"/>
       <c r="H72" s="106" t="s">
@@ -6960,14 +7197,14 @@
         <v>40</v>
       </c>
       <c r="C73" s="138" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D73" s="138"/>
       <c r="E73" s="109" t="s">
         <v>9</v>
       </c>
       <c r="F73" s="110" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G73" s="110"/>
       <c r="H73" s="111" t="s">
@@ -7196,7 +7433,7 @@
   <sheetPr/>
   <dimension ref="B2:S35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13:G13"/>
     </sheetView>
   </sheetViews>
@@ -7263,7 +7500,7 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="11" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="I5" s="34"/>
       <c r="L5" s="5" t="s">
@@ -7281,7 +7518,7 @@
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="11" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="S5" s="34"/>
     </row>
@@ -7290,25 +7527,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="77" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I6" s="80"/>
       <c r="L6" s="43">
         <v>1</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="45" t="s">
@@ -7328,25 +7565,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="77" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I7" s="80"/>
       <c r="L7" s="43">
         <v>2</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="45" t="s">
@@ -7364,25 +7601,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="77" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I8" s="80"/>
       <c r="L8" s="43">
         <v>3</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="45" t="s">
@@ -7400,25 +7637,25 @@
         <v>4</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G9" s="46"/>
       <c r="H9" s="77" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I9" s="80"/>
       <c r="L9" s="43">
         <v>4</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="45" t="s">
@@ -7436,25 +7673,25 @@
         <v>5</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G10" s="46"/>
       <c r="H10" s="77" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I10" s="80"/>
       <c r="L10" s="43">
         <v>5</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="45" t="s">
@@ -7482,7 +7719,7 @@
         <v>6</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="45" t="s">
@@ -7510,7 +7747,7 @@
         <v>7</v>
       </c>
       <c r="M12" s="83" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="N12" s="83"/>
       <c r="O12" s="45" t="s">
@@ -7538,7 +7775,7 @@
         <v>8</v>
       </c>
       <c r="M13" s="83" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="N13" s="83"/>
       <c r="O13" s="45" t="s">
@@ -7566,7 +7803,7 @@
         <v>9</v>
       </c>
       <c r="M14" s="83" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N14" s="83"/>
       <c r="O14" s="45" t="s">
@@ -7594,7 +7831,7 @@
         <v>10</v>
       </c>
       <c r="M15" s="83" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="N15" s="83"/>
       <c r="O15" s="45" t="s">
@@ -7622,7 +7859,7 @@
         <v>11</v>
       </c>
       <c r="M16" s="83" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="N16" s="83"/>
       <c r="O16" s="45" t="s">
@@ -7640,7 +7877,7 @@
         <v>12</v>
       </c>
       <c r="M17" s="83" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N17" s="83"/>
       <c r="O17" s="45" t="s">
@@ -7658,7 +7895,7 @@
         <v>13</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N18" s="23"/>
       <c r="O18" s="45" t="s">
@@ -7676,7 +7913,7 @@
         <v>14</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="45" t="s">
@@ -7694,7 +7931,7 @@
         <v>15</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="N20" s="23"/>
       <c r="O20" s="45" t="s">
@@ -7712,7 +7949,7 @@
         <v>16</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="N21" s="23"/>
       <c r="O21" s="45" t="s">
@@ -7730,7 +7967,7 @@
         <v>17</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="N22" s="23"/>
       <c r="O22" s="45" t="s">
@@ -7748,7 +7985,7 @@
         <v>18</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="N23" s="23"/>
       <c r="O23" s="45" t="s">
@@ -7766,7 +8003,7 @@
         <v>19</v>
       </c>
       <c r="M24" s="84" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="N24" s="84"/>
       <c r="O24" s="45" t="s">
@@ -7784,7 +8021,7 @@
         <v>20</v>
       </c>
       <c r="M25" s="84" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="N25" s="84"/>
       <c r="O25" s="45" t="s">
@@ -7802,7 +8039,7 @@
         <v>21</v>
       </c>
       <c r="M26" s="84" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="N26" s="84"/>
       <c r="O26" s="45" t="s">
@@ -7820,7 +8057,7 @@
         <v>22</v>
       </c>
       <c r="M27" s="84" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="N27" s="84"/>
       <c r="O27" s="45" t="s">
@@ -7838,7 +8075,7 @@
         <v>23</v>
       </c>
       <c r="M28" s="84" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N28" s="84"/>
       <c r="O28" s="45" t="s">
@@ -7856,7 +8093,7 @@
         <v>24</v>
       </c>
       <c r="M29" s="84" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="N29" s="84"/>
       <c r="O29" s="45" t="s">
@@ -7874,7 +8111,7 @@
         <v>25</v>
       </c>
       <c r="M30" s="85" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="N30" s="85"/>
       <c r="O30" s="45" t="s">
@@ -7892,7 +8129,7 @@
         <v>26</v>
       </c>
       <c r="M31" s="85" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="N31" s="85"/>
       <c r="O31" s="45" t="s">
@@ -7910,7 +8147,7 @@
         <v>27</v>
       </c>
       <c r="M32" s="85" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="N32" s="85"/>
       <c r="O32" s="45" t="s">
@@ -7928,7 +8165,7 @@
         <v>28</v>
       </c>
       <c r="M33" s="85" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="N33" s="85"/>
       <c r="O33" s="45" t="s">
@@ -7946,7 +8183,7 @@
         <v>29</v>
       </c>
       <c r="M34" s="85" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="N34" s="85"/>
       <c r="O34" s="45" t="s">
@@ -7964,7 +8201,7 @@
         <v>30</v>
       </c>
       <c r="M35" s="86" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="N35" s="86"/>
       <c r="O35" s="50" t="s">
@@ -8093,7 +8330,7 @@
   <sheetPr/>
   <dimension ref="B2:S36"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A16" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -8105,7 +8342,7 @@
     <row r="2" ht="15.15"/>
     <row r="3" spans="2:19">
       <c r="B3" s="39" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -8115,7 +8352,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="57"/>
       <c r="L3" s="58" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M3" s="59"/>
       <c r="N3" s="59"/>
@@ -8186,36 +8423,36 @@
         <v>1</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="47" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="I6" s="63"/>
       <c r="L6" s="43">
         <v>1</v>
       </c>
       <c r="M6" s="44" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="N6" s="44"/>
       <c r="O6" s="45" t="s">
         <v>97</v>
       </c>
       <c r="P6" s="46" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q6" s="46"/>
       <c r="R6" s="47" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="S6" s="63"/>
     </row>
@@ -8224,36 +8461,36 @@
         <v>2</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="47" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="I7" s="63"/>
       <c r="L7" s="43">
         <v>2</v>
       </c>
       <c r="M7" s="44" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="N7" s="44"/>
       <c r="O7" s="45" t="s">
         <v>97</v>
       </c>
       <c r="P7" s="46" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="46"/>
       <c r="R7" s="47" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="S7" s="63"/>
     </row>
@@ -8262,14 +8499,14 @@
         <v>3</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="47" t="s">
@@ -8280,18 +8517,18 @@
         <v>3</v>
       </c>
       <c r="M8" s="44" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="N8" s="44"/>
       <c r="O8" s="45" t="s">
         <v>97</v>
       </c>
       <c r="P8" s="46" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="46"/>
       <c r="R8" s="47" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="S8" s="63"/>
     </row>
@@ -8300,14 +8537,14 @@
         <v>4</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G9" s="46"/>
       <c r="H9" s="47" t="s">
@@ -8318,18 +8555,18 @@
         <v>4</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="N9" s="44"/>
       <c r="O9" s="45" t="s">
         <v>97</v>
       </c>
       <c r="P9" s="46" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q9" s="46"/>
       <c r="R9" s="47" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="S9" s="63"/>
     </row>
@@ -8338,14 +8575,14 @@
         <v>5</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G10" s="46"/>
       <c r="H10" s="47" t="s">
@@ -8356,18 +8593,18 @@
         <v>5</v>
       </c>
       <c r="M10" s="44" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="N10" s="44"/>
       <c r="O10" s="45" t="s">
         <v>97</v>
       </c>
       <c r="P10" s="46" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q10" s="46"/>
       <c r="R10" s="47" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="S10" s="63"/>
     </row>
@@ -8376,14 +8613,14 @@
         <v>6</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G11" s="46"/>
       <c r="H11" s="47" t="s">
@@ -8394,14 +8631,14 @@
         <v>6</v>
       </c>
       <c r="M11" s="44" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="N11" s="44"/>
       <c r="O11" s="45" t="s">
         <v>97</v>
       </c>
       <c r="P11" s="46" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q11" s="46"/>
       <c r="R11" s="47" t="s">
@@ -8414,14 +8651,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G12" s="46"/>
       <c r="H12" s="47" t="s">
@@ -8432,14 +8669,14 @@
         <v>7</v>
       </c>
       <c r="M12" s="44" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="N12" s="44"/>
       <c r="O12" s="45" t="s">
         <v>97</v>
       </c>
       <c r="P12" s="46" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q12" s="46"/>
       <c r="R12" s="47" t="s">
@@ -8452,14 +8689,14 @@
         <v>8</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G13" s="46"/>
       <c r="H13" s="47" t="s">
@@ -8482,18 +8719,18 @@
         <v>9</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G14" s="46"/>
       <c r="H14" s="47" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="I14" s="63"/>
     </row>
@@ -8502,18 +8739,18 @@
         <v>10</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="G15" s="46"/>
       <c r="H15" s="47" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="I15" s="63"/>
     </row>
@@ -8522,14 +8759,14 @@
         <v>11</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="50" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G16" s="51"/>
       <c r="H16" s="52" t="s">
@@ -8540,7 +8777,7 @@
     <row r="19" ht="15.15"/>
     <row r="20" spans="2:19">
       <c r="B20" s="53" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="54"/>
@@ -8550,7 +8787,7 @@
       <c r="H20" s="54"/>
       <c r="I20" s="65"/>
       <c r="L20" s="66" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M20" s="67"/>
       <c r="N20" s="67"/>
@@ -8621,36 +8858,36 @@
         <v>1</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G23" s="46"/>
       <c r="H23" s="47" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="I23" s="63"/>
       <c r="L23" s="43">
         <v>1</v>
       </c>
       <c r="M23" s="44" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="N23" s="44"/>
       <c r="O23" s="45" t="s">
         <v>9</v>
       </c>
       <c r="P23" s="46" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q23" s="46"/>
       <c r="R23" s="47" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="S23" s="63"/>
     </row>
@@ -8659,32 +8896,32 @@
         <v>2</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="47" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="I24" s="63"/>
       <c r="L24" s="43">
         <v>2</v>
       </c>
       <c r="M24" s="44" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="N24" s="44"/>
       <c r="O24" s="45" t="s">
         <v>9</v>
       </c>
       <c r="P24" s="46" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="Q24" s="46"/>
       <c r="R24" s="47" t="s">
@@ -8697,18 +8934,18 @@
         <v>3</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="G25" s="46"/>
       <c r="H25" s="47" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="I25" s="63"/>
       <c r="L25" s="43"/>
@@ -8725,18 +8962,18 @@
         <v>4</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G26" s="46"/>
       <c r="H26" s="47" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I26" s="63"/>
       <c r="L26" s="48"/>
@@ -8753,18 +8990,18 @@
         <v>5</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G27" s="46"/>
       <c r="H27" s="47" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="I27" s="63"/>
     </row>
@@ -8773,18 +9010,18 @@
         <v>6</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D28" s="44"/>
       <c r="E28" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G28" s="46"/>
       <c r="H28" s="47" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="I28" s="63"/>
     </row>
@@ -8793,18 +9030,18 @@
         <v>7</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D29" s="44"/>
       <c r="E29" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="G29" s="46"/>
       <c r="H29" s="47" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="I29" s="63"/>
     </row>
@@ -8813,18 +9050,18 @@
         <v>8</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D30" s="44"/>
       <c r="E30" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="47" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="I30" s="63"/>
     </row>
@@ -8833,18 +9070,18 @@
         <v>9</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G31" s="46"/>
       <c r="H31" s="47" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="I31" s="63"/>
     </row>
@@ -8853,18 +9090,18 @@
         <v>10</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D32" s="44"/>
       <c r="E32" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G32" s="46"/>
       <c r="H32" s="47" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="I32" s="63"/>
     </row>
@@ -8873,18 +9110,18 @@
         <v>11</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D33" s="44"/>
       <c r="E33" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="G33" s="46"/>
       <c r="H33" s="47" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="I33" s="63"/>
     </row>
@@ -8893,18 +9130,18 @@
         <v>12</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D34" s="44"/>
       <c r="E34" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="G34" s="46"/>
       <c r="H34" s="47" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="I34" s="63"/>
     </row>
@@ -8913,18 +9150,18 @@
         <v>13</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D35" s="44"/>
       <c r="E35" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="46" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="G35" s="46"/>
       <c r="H35" s="47" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="I35" s="63"/>
     </row>
@@ -8933,18 +9170,18 @@
         <v>14</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="50" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G36" s="51"/>
       <c r="H36" s="52" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="I36" s="64"/>
     </row>
@@ -9101,7 +9338,7 @@
     <row r="1" ht="15.15"/>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9146,18 +9383,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="16" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I5" s="35"/>
     </row>
@@ -9166,18 +9403,18 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="16" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -9186,18 +9423,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="16" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I7" s="35"/>
     </row>
@@ -9206,18 +9443,18 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="16" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="I8" s="35"/>
     </row>
@@ -9226,18 +9463,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="16" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I9" s="35"/>
     </row>
@@ -9246,18 +9483,18 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="16" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="I10" s="35"/>
     </row>
@@ -9266,18 +9503,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="21" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I11" s="36"/>
     </row>
@@ -9286,18 +9523,18 @@
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="21" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="I12" s="36"/>
     </row>
@@ -9306,18 +9543,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="26" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="I13" s="37"/>
     </row>
@@ -9326,18 +9563,18 @@
         <v>10</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="31" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="I14" s="38"/>
     </row>

--- a/Document/阀冷系统_迪文屏幕_RAM变量分配表.xlsx
+++ b/Document/阀冷系统_迪文屏幕_RAM变量分配表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="436">
   <si>
     <t>红色字体标注项为后续新加！</t>
   </si>
@@ -687,6 +687,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>RTC</t>
     </r>
     <r>
@@ -704,40 +711,43 @@
     <t>网络时间更新时间</t>
   </si>
   <si>
+    <t>0x6000</t>
+  </si>
+  <si>
+    <t>16bit（下发0xF1）</t>
+  </si>
+  <si>
+    <t>屏幕时间更新到MCU</t>
+  </si>
+  <si>
+    <t>0x6001-0x6004</t>
+  </si>
+  <si>
+    <t>4个16bit</t>
+  </si>
+  <si>
+    <t>传感器上/下限设置</t>
+  </si>
+  <si>
+    <t>超限提示界面</t>
+  </si>
+  <si>
+    <t>地址宽度</t>
+  </si>
+  <si>
+    <t>std_压力传感器_上限</t>
+  </si>
+  <si>
+    <t>0x2100</t>
+  </si>
+  <si>
+    <t>显示%.3f，输入%d1位小数</t>
+  </si>
+  <si>
+    <t>超上/下限图标地址</t>
+  </si>
+  <si>
     <t>0x5000</t>
-  </si>
-  <si>
-    <t>16bit（下发0xF1）</t>
-  </si>
-  <si>
-    <t>屏幕时间更新到MCU</t>
-  </si>
-  <si>
-    <t>0x5001-0x5004</t>
-  </si>
-  <si>
-    <t>4个16bit</t>
-  </si>
-  <si>
-    <t>传感器上/下限设置</t>
-  </si>
-  <si>
-    <t>超限提示界面</t>
-  </si>
-  <si>
-    <t>地址宽度</t>
-  </si>
-  <si>
-    <t>std_压力传感器_上限</t>
-  </si>
-  <si>
-    <t>0x2100</t>
-  </si>
-  <si>
-    <t>显示%.3f，输入%d1位小数</t>
-  </si>
-  <si>
-    <t>超上/下限图标地址</t>
   </si>
   <si>
     <t>（bit）2Byte</t>
@@ -3564,8 +3574,8 @@
   <sheetPr/>
   <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B81" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93:I93"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94:I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5308,6 +5318,7 @@
       <c r="J86" s="111"/>
       <c r="K86" s="131"/>
     </row>
+    <row r="88" ht="15.15"/>
     <row r="89" spans="4:11">
       <c r="D89" s="1" t="s">
         <v>153</v>
@@ -5773,7 +5784,7 @@
   <sheetPr/>
   <dimension ref="B1:Q73"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A20" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F34" sqref="F34:G34"/>
     </sheetView>
   </sheetViews>
@@ -5882,11 +5893,11 @@
         <v>9</v>
       </c>
       <c r="O5" s="127" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="P5" s="127"/>
       <c r="Q5" s="135" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="2:17">
@@ -5894,14 +5905,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="103" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D6" s="103"/>
       <c r="E6" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="106" t="s">
@@ -5909,18 +5920,18 @@
       </c>
       <c r="I6" s="125"/>
       <c r="L6" s="48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M6" s="50"/>
       <c r="N6" s="128" t="s">
         <v>9</v>
       </c>
       <c r="O6" s="128" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P6" s="128"/>
       <c r="Q6" s="136" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" ht="15.15" spans="2:17">
@@ -5928,14 +5939,14 @@
         <v>3</v>
       </c>
       <c r="C7" s="103" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D7" s="103"/>
       <c r="E7" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F7" s="105" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G7" s="105"/>
       <c r="H7" s="106" t="s">
@@ -5954,14 +5965,14 @@
         <v>4</v>
       </c>
       <c r="C8" s="103" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D8" s="103"/>
       <c r="E8" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F8" s="105" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G8" s="105"/>
       <c r="H8" s="106" t="s">
@@ -5974,14 +5985,14 @@
         <v>5</v>
       </c>
       <c r="C9" s="103" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D9" s="103"/>
       <c r="E9" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G9" s="105"/>
       <c r="H9" s="106" t="s">
@@ -5994,14 +6005,14 @@
         <v>6</v>
       </c>
       <c r="C10" s="103" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D10" s="103"/>
       <c r="E10" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F10" s="105" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G10" s="105"/>
       <c r="H10" s="106" t="s">
@@ -6014,14 +6025,14 @@
         <v>7</v>
       </c>
       <c r="C11" s="103" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D11" s="103"/>
       <c r="E11" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F11" s="105" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G11" s="105"/>
       <c r="H11" s="106" t="s">
@@ -6034,14 +6045,14 @@
         <v>8</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D12" s="103"/>
       <c r="E12" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F12" s="105" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G12" s="105"/>
       <c r="H12" s="106" t="s">
@@ -6054,14 +6065,14 @@
         <v>9</v>
       </c>
       <c r="C13" s="103" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D13" s="103"/>
       <c r="E13" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F13" s="105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G13" s="105"/>
       <c r="H13" s="106" t="s">
@@ -6074,14 +6085,14 @@
         <v>10</v>
       </c>
       <c r="C14" s="103" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D14" s="103"/>
       <c r="E14" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F14" s="105" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G14" s="105"/>
       <c r="H14" s="106" t="s">
@@ -6094,14 +6105,14 @@
         <v>11</v>
       </c>
       <c r="C15" s="103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D15" s="103"/>
       <c r="E15" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F15" s="105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G15" s="105"/>
       <c r="H15" s="106" t="s">
@@ -6114,14 +6125,14 @@
         <v>12</v>
       </c>
       <c r="C16" s="103" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D16" s="103"/>
       <c r="E16" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F16" s="105" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G16" s="105"/>
       <c r="H16" s="106" t="s">
@@ -6134,14 +6145,14 @@
         <v>13</v>
       </c>
       <c r="C17" s="103" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D17" s="103"/>
       <c r="E17" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F17" s="105" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G17" s="105"/>
       <c r="H17" s="106" t="s">
@@ -6154,14 +6165,14 @@
         <v>14</v>
       </c>
       <c r="C18" s="103" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D18" s="103"/>
       <c r="E18" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F18" s="105" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G18" s="105"/>
       <c r="H18" s="106" t="s">
@@ -6174,14 +6185,14 @@
         <v>15</v>
       </c>
       <c r="C19" s="103" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D19" s="103"/>
       <c r="E19" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="105" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G19" s="105"/>
       <c r="H19" s="106" t="s">
@@ -6194,14 +6205,14 @@
         <v>16</v>
       </c>
       <c r="C20" s="103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D20" s="103"/>
       <c r="E20" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F20" s="105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G20" s="105"/>
       <c r="H20" s="106" t="s">
@@ -6214,14 +6225,14 @@
         <v>17</v>
       </c>
       <c r="C21" s="103" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D21" s="103"/>
       <c r="E21" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F21" s="105" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G21" s="105"/>
       <c r="H21" s="106" t="s">
@@ -6234,14 +6245,14 @@
         <v>18</v>
       </c>
       <c r="C22" s="103" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D22" s="103"/>
       <c r="E22" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F22" s="105" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G22" s="105"/>
       <c r="H22" s="106" t="s">
@@ -6254,14 +6265,14 @@
         <v>19</v>
       </c>
       <c r="C23" s="103" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D23" s="103"/>
       <c r="E23" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F23" s="105" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G23" s="105"/>
       <c r="H23" s="106" t="s">
@@ -6274,14 +6285,14 @@
         <v>20</v>
       </c>
       <c r="C24" s="103" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D24" s="103"/>
       <c r="E24" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F24" s="105" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G24" s="105"/>
       <c r="H24" s="106" t="s">
@@ -6294,14 +6305,14 @@
         <v>21</v>
       </c>
       <c r="C25" s="103" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D25" s="103"/>
       <c r="E25" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F25" s="105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G25" s="105"/>
       <c r="H25" s="106" t="s">
@@ -6314,14 +6325,14 @@
         <v>22</v>
       </c>
       <c r="C26" s="103" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D26" s="103"/>
       <c r="E26" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F26" s="105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G26" s="105"/>
       <c r="H26" s="106" t="s">
@@ -6334,14 +6345,14 @@
         <v>23</v>
       </c>
       <c r="C27" s="103" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D27" s="103"/>
       <c r="E27" s="104" t="s">
         <v>97</v>
       </c>
       <c r="F27" s="105" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G27" s="105"/>
       <c r="H27" s="106" t="s">
@@ -6354,14 +6365,14 @@
         <v>24</v>
       </c>
       <c r="C28" s="108" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D28" s="108"/>
       <c r="E28" s="109" t="s">
         <v>97</v>
       </c>
       <c r="F28" s="110" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G28" s="110"/>
       <c r="H28" s="111" t="s">
@@ -6372,7 +6383,7 @@
     <row r="30" ht="15.15"/>
     <row r="31" spans="2:9">
       <c r="B31" s="91" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C31" s="92"/>
       <c r="D31" s="92"/>
@@ -6417,14 +6428,14 @@
         <v>1</v>
       </c>
       <c r="C34" s="112" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D34" s="112"/>
       <c r="E34" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="105" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G34" s="105"/>
       <c r="H34" s="106" t="s">
@@ -6437,14 +6448,14 @@
         <v>2</v>
       </c>
       <c r="C35" s="112" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D35" s="112"/>
       <c r="E35" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="105" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G35" s="105"/>
       <c r="H35" s="106" t="s">
@@ -6457,14 +6468,14 @@
         <v>3</v>
       </c>
       <c r="C36" s="112" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D36" s="112"/>
       <c r="E36" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="105" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G36" s="105"/>
       <c r="H36" s="106" t="s">
@@ -6477,14 +6488,14 @@
         <v>4</v>
       </c>
       <c r="C37" s="112" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D37" s="112"/>
       <c r="E37" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="105" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G37" s="105"/>
       <c r="H37" s="106" t="s">
@@ -6497,14 +6508,14 @@
         <v>5</v>
       </c>
       <c r="C38" s="112" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D38" s="112"/>
       <c r="E38" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="105" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G38" s="105"/>
       <c r="H38" s="106" t="s">
@@ -6517,14 +6528,14 @@
         <v>6</v>
       </c>
       <c r="C39" s="112" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D39" s="112"/>
       <c r="E39" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="105" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G39" s="105"/>
       <c r="H39" s="106" t="s">
@@ -6537,14 +6548,14 @@
         <v>7</v>
       </c>
       <c r="C40" s="112" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D40" s="112"/>
       <c r="E40" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="105" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G40" s="105"/>
       <c r="H40" s="106" t="s">
@@ -6557,14 +6568,14 @@
         <v>8</v>
       </c>
       <c r="C41" s="112" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D41" s="112"/>
       <c r="E41" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G41" s="105"/>
       <c r="H41" s="106" t="s">
@@ -6577,14 +6588,14 @@
         <v>9</v>
       </c>
       <c r="C42" s="112" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D42" s="112"/>
       <c r="E42" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="105" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G42" s="105"/>
       <c r="H42" s="106" t="s">
@@ -6597,14 +6608,14 @@
         <v>10</v>
       </c>
       <c r="C43" s="112" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D43" s="112"/>
       <c r="E43" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="105" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G43" s="105"/>
       <c r="H43" s="106" t="s">
@@ -6617,14 +6628,14 @@
         <v>11</v>
       </c>
       <c r="C44" s="112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D44" s="112"/>
       <c r="E44" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="105" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G44" s="105"/>
       <c r="H44" s="106" t="s">
@@ -6637,14 +6648,14 @@
         <v>12</v>
       </c>
       <c r="C45" s="112" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D45" s="112"/>
       <c r="E45" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="105" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G45" s="105"/>
       <c r="H45" s="106" t="s">
@@ -6657,14 +6668,14 @@
         <v>13</v>
       </c>
       <c r="C46" s="112" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D46" s="112"/>
       <c r="E46" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="105" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G46" s="105"/>
       <c r="H46" s="106" t="s">
@@ -6677,14 +6688,14 @@
         <v>14</v>
       </c>
       <c r="C47" s="112" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D47" s="112"/>
       <c r="E47" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G47" s="105"/>
       <c r="H47" s="106" t="s">
@@ -6697,14 +6708,14 @@
         <v>15</v>
       </c>
       <c r="C48" s="112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D48" s="112"/>
       <c r="E48" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="105" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G48" s="105"/>
       <c r="H48" s="106" t="s">
@@ -6717,14 +6728,14 @@
         <v>16</v>
       </c>
       <c r="C49" s="112" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D49" s="112"/>
       <c r="E49" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="105" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G49" s="105"/>
       <c r="H49" s="106" t="s">
@@ -6737,14 +6748,14 @@
         <v>17</v>
       </c>
       <c r="C50" s="112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D50" s="112"/>
       <c r="E50" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="105" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G50" s="105"/>
       <c r="H50" s="106" t="s">
@@ -6757,14 +6768,14 @@
         <v>18</v>
       </c>
       <c r="C51" s="112" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D51" s="112"/>
       <c r="E51" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="105" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G51" s="105"/>
       <c r="H51" s="106" t="s">
@@ -6777,14 +6788,14 @@
         <v>19</v>
       </c>
       <c r="C52" s="112" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D52" s="112"/>
       <c r="E52" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="105" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G52" s="105"/>
       <c r="H52" s="106" t="s">
@@ -6797,14 +6808,14 @@
         <v>20</v>
       </c>
       <c r="C53" s="112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D53" s="112"/>
       <c r="E53" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="105" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G53" s="105"/>
       <c r="H53" s="106" t="s">
@@ -6817,14 +6828,14 @@
         <v>21</v>
       </c>
       <c r="C54" s="112" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D54" s="112"/>
       <c r="E54" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="105" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G54" s="105"/>
       <c r="H54" s="106" t="s">
@@ -6837,14 +6848,14 @@
         <v>22</v>
       </c>
       <c r="C55" s="112" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D55" s="112"/>
       <c r="E55" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="105" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G55" s="105"/>
       <c r="H55" s="106" t="s">
@@ -6857,14 +6868,14 @@
         <v>23</v>
       </c>
       <c r="C56" s="112" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D56" s="112"/>
       <c r="E56" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="105" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G56" s="105"/>
       <c r="H56" s="106" t="s">
@@ -6877,14 +6888,14 @@
         <v>24</v>
       </c>
       <c r="C57" s="112" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D57" s="112"/>
       <c r="E57" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="105" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G57" s="105"/>
       <c r="H57" s="106" t="s">
@@ -6897,14 +6908,14 @@
         <v>25</v>
       </c>
       <c r="C58" s="112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D58" s="112"/>
       <c r="E58" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="105" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G58" s="105"/>
       <c r="H58" s="106" t="s">
@@ -6917,14 +6928,14 @@
         <v>26</v>
       </c>
       <c r="C59" s="112" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D59" s="112"/>
       <c r="E59" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="105" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G59" s="105"/>
       <c r="H59" s="106" t="s">
@@ -6937,14 +6948,14 @@
         <v>27</v>
       </c>
       <c r="C60" s="112" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D60" s="112"/>
       <c r="E60" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="105" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G60" s="105"/>
       <c r="H60" s="106" t="s">
@@ -6957,14 +6968,14 @@
         <v>28</v>
       </c>
       <c r="C61" s="112" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D61" s="112"/>
       <c r="E61" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="105" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G61" s="105"/>
       <c r="H61" s="106" t="s">
@@ -6977,14 +6988,14 @@
         <v>29</v>
       </c>
       <c r="C62" s="112" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D62" s="112"/>
       <c r="E62" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="105" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G62" s="105"/>
       <c r="H62" s="106" t="s">
@@ -6997,14 +7008,14 @@
         <v>30</v>
       </c>
       <c r="C63" s="112" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D63" s="112"/>
       <c r="E63" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="105" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G63" s="105"/>
       <c r="H63" s="106" t="s">
@@ -7017,14 +7028,14 @@
         <v>31</v>
       </c>
       <c r="C64" s="112" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D64" s="112"/>
       <c r="E64" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F64" s="105" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G64" s="105"/>
       <c r="H64" s="106" t="s">
@@ -7037,14 +7048,14 @@
         <v>32</v>
       </c>
       <c r="C65" s="112" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D65" s="112"/>
       <c r="E65" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="105" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G65" s="105"/>
       <c r="H65" s="106" t="s">
@@ -7057,14 +7068,14 @@
         <v>33</v>
       </c>
       <c r="C66" s="112" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D66" s="112"/>
       <c r="E66" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F66" s="105" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G66" s="105"/>
       <c r="H66" s="106" t="s">
@@ -7077,14 +7088,14 @@
         <v>34</v>
       </c>
       <c r="C67" s="112" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D67" s="112"/>
       <c r="E67" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="105" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G67" s="105"/>
       <c r="H67" s="106" t="s">
@@ -7097,14 +7108,14 @@
         <v>35</v>
       </c>
       <c r="C68" s="112" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D68" s="112"/>
       <c r="E68" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="105" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G68" s="105"/>
       <c r="H68" s="106" t="s">
@@ -7117,14 +7128,14 @@
         <v>36</v>
       </c>
       <c r="C69" s="112" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D69" s="112"/>
       <c r="E69" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F69" s="105" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G69" s="105"/>
       <c r="H69" s="106" t="s">
@@ -7137,14 +7148,14 @@
         <v>37</v>
       </c>
       <c r="C70" s="112" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D70" s="112"/>
       <c r="E70" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F70" s="105" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G70" s="105"/>
       <c r="H70" s="106" t="s">
@@ -7157,14 +7168,14 @@
         <v>38</v>
       </c>
       <c r="C71" s="112" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D71" s="112"/>
       <c r="E71" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="105" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G71" s="105"/>
       <c r="H71" s="106" t="s">
@@ -7177,14 +7188,14 @@
         <v>39</v>
       </c>
       <c r="C72" s="112" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D72" s="112"/>
       <c r="E72" s="104" t="s">
         <v>9</v>
       </c>
       <c r="F72" s="105" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G72" s="105"/>
       <c r="H72" s="106" t="s">
@@ -7197,14 +7208,14 @@
         <v>40</v>
       </c>
       <c r="C73" s="138" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D73" s="138"/>
       <c r="E73" s="109" t="s">
         <v>9</v>
       </c>
       <c r="F73" s="110" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G73" s="110"/>
       <c r="H73" s="111" t="s">
@@ -7433,7 +7444,7 @@
   <sheetPr/>
   <dimension ref="B2:S35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F13" sqref="F13:G13"/>
     </sheetView>
   </sheetViews>
@@ -7500,7 +7511,7 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I5" s="34"/>
       <c r="L5" s="5" t="s">
@@ -7518,7 +7529,7 @@
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S5" s="34"/>
     </row>
@@ -7527,25 +7538,25 @@
         <v>1</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="77" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I6" s="80"/>
       <c r="L6" s="43">
         <v>1</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="45" t="s">
@@ -7565,25 +7576,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="77" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I7" s="80"/>
       <c r="L7" s="43">
         <v>2</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="45" t="s">
@@ -7601,25 +7612,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="77" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I8" s="80"/>
       <c r="L8" s="43">
         <v>3</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="45" t="s">
@@ -7637,25 +7648,25 @@
         <v>4</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G9" s="46"/>
       <c r="H9" s="77" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I9" s="80"/>
       <c r="L9" s="43">
         <v>4</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="45" t="s">
@@ -7673,25 +7684,25 @@
         <v>5</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G10" s="46"/>
       <c r="H10" s="77" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I10" s="80"/>
       <c r="L10" s="43">
         <v>5</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="45" t="s">
@@ -7719,7 +7730,7 @@
         <v>6</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="45" t="s">
@@ -7747,7 +7758,7 @@
         <v>7</v>
       </c>
       <c r="M12" s="83" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N12" s="83"/>
       <c r="O12" s="45" t="s">
@@ -7775,7 +7786,7 @@
         <v>8</v>
       </c>
       <c r="M13" s="83" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N13" s="83"/>
       <c r="O13" s="45" t="s">
@@ -7803,7 +7814,7 @@
         <v>9</v>
       </c>
       <c r="M14" s="83" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N14" s="83"/>
       <c r="O14" s="45" t="s">
@@ -7831,7 +7842,7 @@
         <v>10</v>
       </c>
       <c r="M15" s="83" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N15" s="83"/>
       <c r="O15" s="45" t="s">
@@ -7859,7 +7870,7 @@
         <v>11</v>
       </c>
       <c r="M16" s="83" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N16" s="83"/>
       <c r="O16" s="45" t="s">
@@ -7877,7 +7888,7 @@
         <v>12</v>
       </c>
       <c r="M17" s="83" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N17" s="83"/>
       <c r="O17" s="45" t="s">
@@ -7895,7 +7906,7 @@
         <v>13</v>
       </c>
       <c r="M18" s="23" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N18" s="23"/>
       <c r="O18" s="45" t="s">
@@ -7913,7 +7924,7 @@
         <v>14</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="45" t="s">
@@ -7931,7 +7942,7 @@
         <v>15</v>
       </c>
       <c r="M20" s="23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N20" s="23"/>
       <c r="O20" s="45" t="s">
@@ -7949,7 +7960,7 @@
         <v>16</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N21" s="23"/>
       <c r="O21" s="45" t="s">
@@ -7967,7 +7978,7 @@
         <v>17</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N22" s="23"/>
       <c r="O22" s="45" t="s">
@@ -7985,7 +7996,7 @@
         <v>18</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N23" s="23"/>
       <c r="O23" s="45" t="s">
@@ -8003,7 +8014,7 @@
         <v>19</v>
       </c>
       <c r="M24" s="84" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N24" s="84"/>
       <c r="O24" s="45" t="s">
@@ -8021,7 +8032,7 @@
         <v>20</v>
       </c>
       <c r="M25" s="84" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N25" s="84"/>
       <c r="O25" s="45" t="s">
@@ -8039,7 +8050,7 @@
         <v>21</v>
       </c>
       <c r="M26" s="84" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N26" s="84"/>
       <c r="O26" s="45" t="s">
@@ -8057,7 +8068,7 @@
         <v>22</v>
       </c>
       <c r="M27" s="84" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N27" s="84"/>
       <c r="O27" s="45" t="s">
@@ -8075,7 +8086,7 @@
         <v>23</v>
       </c>
       <c r="M28" s="84" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N28" s="84"/>
       <c r="O28" s="45" t="s">
@@ -8093,7 +8104,7 @@
         <v>24</v>
       </c>
       <c r="M29" s="84" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N29" s="84"/>
       <c r="O29" s="45" t="s">
@@ -8111,7 +8122,7 @@
         <v>25</v>
       </c>
       <c r="M30" s="85" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N30" s="85"/>
       <c r="O30" s="45" t="s">
@@ -8129,7 +8140,7 @@
         <v>26</v>
       </c>
       <c r="M31" s="85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N31" s="85"/>
       <c r="O31" s="45" t="s">
@@ -8147,7 +8158,7 @@
         <v>27</v>
       </c>
       <c r="M32" s="85" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N32" s="85"/>
       <c r="O32" s="45" t="s">
@@ -8165,7 +8176,7 @@
         <v>28</v>
       </c>
       <c r="M33" s="85" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N33" s="85"/>
       <c r="O33" s="45" t="s">
@@ -8183,7 +8194,7 @@
         <v>29</v>
       </c>
       <c r="M34" s="85" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N34" s="85"/>
       <c r="O34" s="45" t="s">
@@ -8201,7 +8212,7 @@
         <v>30</v>
       </c>
       <c r="M35" s="86" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N35" s="86"/>
       <c r="O35" s="50" t="s">
@@ -8330,7 +8341,7 @@
   <sheetPr/>
   <dimension ref="B2:S36"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A37" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -8342,7 +8353,7 @@
     <row r="2" ht="15.15"/>
     <row r="3" spans="2:19">
       <c r="B3" s="39" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -8352,7 +8363,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="57"/>
       <c r="L3" s="58" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M3" s="59"/>
       <c r="N3" s="59"/>
@@ -8423,36 +8434,36 @@
         <v>1</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="46" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="47" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I6" s="63"/>
       <c r="L6" s="43">
         <v>1</v>
       </c>
       <c r="M6" s="44" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N6" s="44"/>
       <c r="O6" s="45" t="s">
         <v>97</v>
       </c>
       <c r="P6" s="46" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q6" s="46"/>
       <c r="R6" s="47" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S6" s="63"/>
     </row>
@@ -8461,36 +8472,36 @@
         <v>2</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G7" s="46"/>
       <c r="H7" s="47" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I7" s="63"/>
       <c r="L7" s="43">
         <v>2</v>
       </c>
       <c r="M7" s="44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N7" s="44"/>
       <c r="O7" s="45" t="s">
         <v>97</v>
       </c>
       <c r="P7" s="46" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q7" s="46"/>
       <c r="R7" s="47" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S7" s="63"/>
     </row>
@@ -8499,14 +8510,14 @@
         <v>3</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G8" s="46"/>
       <c r="H8" s="47" t="s">
@@ -8517,18 +8528,18 @@
         <v>3</v>
       </c>
       <c r="M8" s="44" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N8" s="44"/>
       <c r="O8" s="45" t="s">
         <v>97</v>
       </c>
       <c r="P8" s="46" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q8" s="46"/>
       <c r="R8" s="47" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="S8" s="63"/>
     </row>
@@ -8537,14 +8548,14 @@
         <v>4</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G9" s="46"/>
       <c r="H9" s="47" t="s">
@@ -8555,18 +8566,18 @@
         <v>4</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N9" s="44"/>
       <c r="O9" s="45" t="s">
         <v>97</v>
       </c>
       <c r="P9" s="46" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q9" s="46"/>
       <c r="R9" s="47" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S9" s="63"/>
     </row>
@@ -8575,14 +8586,14 @@
         <v>5</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G10" s="46"/>
       <c r="H10" s="47" t="s">
@@ -8593,18 +8604,18 @@
         <v>5</v>
       </c>
       <c r="M10" s="44" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N10" s="44"/>
       <c r="O10" s="45" t="s">
         <v>97</v>
       </c>
       <c r="P10" s="46" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="46"/>
       <c r="R10" s="47" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="S10" s="63"/>
     </row>
@@ -8613,14 +8624,14 @@
         <v>6</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G11" s="46"/>
       <c r="H11" s="47" t="s">
@@ -8631,14 +8642,14 @@
         <v>6</v>
       </c>
       <c r="M11" s="44" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N11" s="44"/>
       <c r="O11" s="45" t="s">
         <v>97</v>
       </c>
       <c r="P11" s="46" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="46"/>
       <c r="R11" s="47" t="s">
@@ -8651,14 +8662,14 @@
         <v>7</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G12" s="46"/>
       <c r="H12" s="47" t="s">
@@ -8669,14 +8680,14 @@
         <v>7</v>
       </c>
       <c r="M12" s="44" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N12" s="44"/>
       <c r="O12" s="45" t="s">
         <v>97</v>
       </c>
       <c r="P12" s="46" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q12" s="46"/>
       <c r="R12" s="47" t="s">
@@ -8689,14 +8700,14 @@
         <v>8</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G13" s="46"/>
       <c r="H13" s="47" t="s">
@@ -8719,18 +8730,18 @@
         <v>9</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G14" s="46"/>
       <c r="H14" s="47" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I14" s="63"/>
     </row>
@@ -8739,18 +8750,18 @@
         <v>10</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G15" s="46"/>
       <c r="H15" s="47" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I15" s="63"/>
     </row>
@@ -8759,14 +8770,14 @@
         <v>11</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="50" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G16" s="51"/>
       <c r="H16" s="52" t="s">
@@ -8777,7 +8788,7 @@
     <row r="19" ht="15.15"/>
     <row r="20" spans="2:19">
       <c r="B20" s="53" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="54"/>
@@ -8787,7 +8798,7 @@
       <c r="H20" s="54"/>
       <c r="I20" s="65"/>
       <c r="L20" s="66" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M20" s="67"/>
       <c r="N20" s="67"/>
@@ -8858,36 +8869,36 @@
         <v>1</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G23" s="46"/>
       <c r="H23" s="47" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I23" s="63"/>
       <c r="L23" s="43">
         <v>1</v>
       </c>
       <c r="M23" s="44" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N23" s="44"/>
       <c r="O23" s="45" t="s">
         <v>9</v>
       </c>
       <c r="P23" s="46" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q23" s="46"/>
       <c r="R23" s="47" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S23" s="63"/>
     </row>
@@ -8896,32 +8907,32 @@
         <v>2</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="47" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I24" s="63"/>
       <c r="L24" s="43">
         <v>2</v>
       </c>
       <c r="M24" s="44" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N24" s="44"/>
       <c r="O24" s="45" t="s">
         <v>9</v>
       </c>
       <c r="P24" s="46" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q24" s="46"/>
       <c r="R24" s="47" t="s">
@@ -8934,18 +8945,18 @@
         <v>3</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G25" s="46"/>
       <c r="H25" s="47" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I25" s="63"/>
       <c r="L25" s="43"/>
@@ -8962,18 +8973,18 @@
         <v>4</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G26" s="46"/>
       <c r="H26" s="47" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I26" s="63"/>
       <c r="L26" s="48"/>
@@ -8990,18 +9001,18 @@
         <v>5</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G27" s="46"/>
       <c r="H27" s="47" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I27" s="63"/>
     </row>
@@ -9010,18 +9021,18 @@
         <v>6</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D28" s="44"/>
       <c r="E28" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G28" s="46"/>
       <c r="H28" s="47" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I28" s="63"/>
     </row>
@@ -9030,18 +9041,18 @@
         <v>7</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D29" s="44"/>
       <c r="E29" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G29" s="46"/>
       <c r="H29" s="47" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I29" s="63"/>
     </row>
@@ -9050,18 +9061,18 @@
         <v>8</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D30" s="44"/>
       <c r="E30" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="47" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I30" s="63"/>
     </row>
@@ -9070,18 +9081,18 @@
         <v>9</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G31" s="46"/>
       <c r="H31" s="47" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I31" s="63"/>
     </row>
@@ -9090,18 +9101,18 @@
         <v>10</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D32" s="44"/>
       <c r="E32" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G32" s="46"/>
       <c r="H32" s="47" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I32" s="63"/>
     </row>
@@ -9110,18 +9121,18 @@
         <v>11</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D33" s="44"/>
       <c r="E33" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G33" s="46"/>
       <c r="H33" s="47" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I33" s="63"/>
     </row>
@@ -9130,18 +9141,18 @@
         <v>12</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D34" s="44"/>
       <c r="E34" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G34" s="46"/>
       <c r="H34" s="47" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I34" s="63"/>
     </row>
@@ -9150,18 +9161,18 @@
         <v>13</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D35" s="44"/>
       <c r="E35" s="45" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="46" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G35" s="46"/>
       <c r="H35" s="47" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I35" s="63"/>
     </row>
@@ -9170,18 +9181,18 @@
         <v>14</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="50" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G36" s="51"/>
       <c r="H36" s="52" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I36" s="64"/>
     </row>
@@ -9338,7 +9349,7 @@
     <row r="1" ht="15.15"/>
     <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9383,18 +9394,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="16" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I5" s="35"/>
     </row>
@@ -9403,18 +9414,18 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="16" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I6" s="35"/>
     </row>
@@ -9423,18 +9434,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="16" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I7" s="35"/>
     </row>
@@ -9443,18 +9454,18 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="16" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I8" s="35"/>
     </row>
@@ -9463,18 +9474,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="16" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I9" s="35"/>
     </row>
@@ -9483,18 +9494,18 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="16" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I10" s="35"/>
     </row>
@@ -9503,18 +9514,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="21" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I11" s="36"/>
     </row>
@@ -9523,18 +9534,18 @@
         <v>8</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="21" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I12" s="36"/>
     </row>
@@ -9543,18 +9554,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="26" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I13" s="37"/>
     </row>
@@ -9563,18 +9574,18 @@
         <v>10</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I14" s="38"/>
     </row>
